--- a/Results/bodePlot25_09.xlsx
+++ b/Results/bodePlot25_09.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris.Chris-PC\Documents\robotLive\robot\robotTracking\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris.Chris-PC\Documents\robotLive\robot\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="bodePlot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Time (ms)</t>
   </si>
@@ -30,16 +30,31 @@
     <t>y tip (mm)</t>
   </si>
   <si>
-    <t>target time</t>
-  </si>
-  <si>
-    <t>tip time</t>
-  </si>
-  <si>
     <t>rise time</t>
   </si>
   <si>
-    <t>total height change</t>
+    <t>trough</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>10 percent time</t>
+  </si>
+  <si>
+    <t>90 percent time</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>10 percent</t>
+  </si>
+  <si>
+    <t>90 percent</t>
   </si>
 </sst>
 </file>
@@ -523,9 +538,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6925,11 +6944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="270040904"/>
-        <c:axId val="270042472"/>
+        <c:axId val="565777528"/>
+        <c:axId val="565777920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="270040904"/>
+        <c:axId val="565777528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6986,12 +7005,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270042472"/>
+        <c:crossAx val="565777920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270042472"/>
+        <c:axId val="565777920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7048,7 +7067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270040904"/>
+        <c:crossAx val="565777528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7129,7 +7148,2870 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5514343601786622E-2"/>
+          <c:y val="3.3411873239645375E-2"/>
+          <c:w val="0.88025325781645714"/>
+          <c:h val="0.82592930779633567"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Target</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bodePlot!$R$1:$R$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="193"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.151</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.452</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.552</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.752</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.802</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.952</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.052</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.254</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.3039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.8039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.0539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.254</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.3540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.4540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.504</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.5539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.7040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.754</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.8039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.9540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.0039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.2039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.2539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.3040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.3540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.5540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.6550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.7039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.7560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.806</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.9059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.056</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.1059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.1559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.2060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.3070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.4059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.4560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.5069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.556</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.6559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.7560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.806</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.9059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.9569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.056</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.1059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.1559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.2060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.306</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.4059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.4569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.556</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.6559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.7060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.7569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.806</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.9059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.9560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.056</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.1059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.1559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.2060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.306</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.3570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.4569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.5069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.6070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.657</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.7569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.8070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.8570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7.907</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.9569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8.1069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8.2070000000000007</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8.2569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8.3070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8.3569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8.407</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.4570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.5069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.6069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.7070000000000007</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.7569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8.8070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.8569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.907</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.9570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.0579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9.1069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9.157</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9.2579999999999991</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.3089999999999993</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.3580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9.4079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.4580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9.5079999999999991</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9.6080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9.6579999999999995</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.7579999999999991</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9.8079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9.859</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.9079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.9580000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bodePlot!$S$1:$S$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="193"/>
+                <c:pt idx="0">
+                  <c:v>-234.62730000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-235.8733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-236.4914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-237.56319999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-237.73530000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-237.6198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-237.51159999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-237.84389999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-236.84790000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-236.63059999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-236.04500000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-236.04570000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-236.7636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-237.71850000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-238.47129999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-238.88899999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-239.38989999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-240.38660000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-241.71350000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-242.96129999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-243.96639999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-246.07429999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-249.6345</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-237.47309999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-139.72630000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-84.916870000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.440370000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53.856909999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68.956760000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86.40382000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.189080000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>106.292</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105.6806</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>105.56559999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104.17740000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105.4605</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>104.3775</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>106.2159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>108.58149999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>110.9787</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>117.2861</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>118.42869999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>121.99019999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>125.10489999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>126.7953</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>129.78200000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129.69149999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>125.29199999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>111.39960000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43.01728</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-149.5428</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-239.5898</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-231.36619999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-226.15049999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-224.4119</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-223.4083</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-222.4034</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-222.6027</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-221.77250000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-221.1848</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-220.43350000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-219.87870000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-220.26780000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-220.84970000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-221.22990000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-220.84490000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-220.65109999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-221.06110000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-219.9682</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-217.88640000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-163.47229999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-45.518419999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.858752</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43.688510000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46.474290000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>54.022919999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>57.491289999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>60.210350000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>64.986789999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>65.571860000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.690490000000011</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>68.483050000000006</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>70.067850000000007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>72.024820000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>73.539699999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>75.912540000000007</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>81.264879999999991</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>86.254349999999988</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.418279999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>93.527439999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>98.358650000000011</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>99.927730000000011</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99.027240000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>90.341260000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>68.843249999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-160.291</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-204.80260000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-218.0111</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-230.07589999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-234.83529999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-233.68790000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-229.7527</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-227.1524</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-227.5702</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-227.36880000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-226.66410000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-227.28110000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-229.036</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-230.06829999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-231.63120000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-233.49950000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-235.20340000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-236.30770000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-238.38249999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-238.56830000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-238.58539999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-237.15539999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-237.3536</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-177.3442</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-21.770140000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>78.763540000000006</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>75.044990000000013</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>64.704490000000007</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>65.503389999999996</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>71.000990000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>70.604759999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>72.864189999999994</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>73.885220000000004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>76.004500000000007</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>77.394800000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>80.149619999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>82.299760000000006</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>84.565299999999993</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>88.482320000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>90.149039999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>90.01867</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>93.453850000000003</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>95.95241</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>97.497860000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>99.110920000000007</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>99.38991</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>97.615809999999996</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>63.263849999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-114.73859999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-238.9271</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-209.59180000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-225.7912</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-220.51920000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-232.77220000000003</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-230.75839999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-230.8896</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-227.69149999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-230.3066</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-228.49630000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-229.90869999999998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-229.768</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-229.22149999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-230.84620000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-230.41130000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-230.6908</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-230.267</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-230.05930000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-229.21209999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-229.50219999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-230.5729</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-231.9658</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-231.8844</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.2823230000000003</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>37.2423</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>49.906020000000005</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>59.913960000000003</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>64.635090000000005</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>67.027340000000009</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>70.793030000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>72.865560000000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>75.64558000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>78.653699999999986</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>82.773570000000007</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>85.1708</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>86.45581</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>87.576589999999996</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>87.687749999999994</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>89.21835999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>89.427250000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>91.731800000000007</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>93.152479999999997</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>94.243120000000005</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>94.910530000000008</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>97.17998</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>97.210589999999996</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>98.433049999999994</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>101.00330000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>100.20099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tip</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bodePlot!$R$1:$R$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="193"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.151</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.452</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.552</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.752</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.802</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.952</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.052</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.254</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.3039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.8039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.0539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.254</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.3540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.4540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.504</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.5539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.7040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.754</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.8039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.9540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.0039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.2039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.2539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.3040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.3540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.5540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.6550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.7039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.7560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.806</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.9059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.056</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.1059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.1559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.2060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.3070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.4059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.4560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.5069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.556</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.6559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.7560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.806</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.9059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.9569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.056</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.1059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.1559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.2060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.306</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.4059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.4569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.556</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.6559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.7060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.7569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.806</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.9059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.9560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.056</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.1059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.1559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.2060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.306</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.3570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.4569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.5069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.6070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.657</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.7569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.8070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.8570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7.907</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.9569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8.1069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8.2070000000000007</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8.2569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8.3070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8.3569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8.407</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.4570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.5069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.6069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.7070000000000007</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.7569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8.8070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.8569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.907</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.9570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.0579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9.1069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9.157</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9.2579999999999991</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.3089999999999993</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.3580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9.4079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.4580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9.5079999999999991</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9.6080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9.6579999999999995</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.7579999999999991</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9.8079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9.859</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.9079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.9580000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bodePlot!$T$1:$T$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="193"/>
+                <c:pt idx="0">
+                  <c:v>-87.818519999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-87.826639999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-87.896020000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-88.719580000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-92.315469999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-95.923690000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-101.68510000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-104.6009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-108.3486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-109.97850000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-117.0003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-119.3403</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-122.9282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-125.2715</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-129.32309999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-134.60829999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-136.9042</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-139.5453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-140.624</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-140.1414</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-140.01069999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-140.75190000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-141.06630000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-141.1079</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-140.8758</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-140.39189999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-139.98089999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-139.99010000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-139.22739999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-136.83750000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-129.83099999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-125.53619999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-120.84820000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-114.2205</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-109.4892</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-104.77590000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-92.145409999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-87.689790000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-83.830550000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-79.878550000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-61.764939999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-55.485569999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-43.849270000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-36.5319</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-31.637350000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-29.636520000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-30.518139999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-30.644680000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-30.502649999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-30.711649999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-30.664549999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-30.014880000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-53.195650000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-59.293400000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-69.073179999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-73.612090000000009</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-83.658670000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-92.39958</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-98.497669999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-105.38889999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-111.11999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-121.40639999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-128.96560000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-133.35810000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-140.96359999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-147.06060000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-150.58849999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-148.8235</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-147.5883</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-148.5299</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-149.70869999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-147.0976</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-147.1026</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-147.42019999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-145.81820000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-141.43800000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-132.78570000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-129.0069</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-124.5642</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-122.8443</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-114.7111</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-107.2978</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-98.37612</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-94.397590000000008</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-88.179779999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-82.952349999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-66.348030000000008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-53.077129999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-45.788200000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-38.981529999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-31.057639999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-29.643000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-31.147069999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-30.725709999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-30.70233</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-30.926209999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-31.068350000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-35.474299999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-45.574019999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-50.982790000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-53.575110000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-61.745269999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-66.373180000000005</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-76.682929999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-81.594349999999991</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-94.736800000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-98.183389999999989</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-106.6281</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-114.2222</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-121.1035</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-127.68189999999998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-136.3252</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-140.03059999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-148.3167</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-150.84610000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-148.51600000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-147.6242</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-148.47890000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-149.7756</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-149.10839999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-149.04570000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-149.2654</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-149.15020000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-143.53460000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-135.6003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-132.44210000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-126.97020000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-124.2778</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-115.06829999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-106.13839999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-101.2243</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-92.011949999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-88.141130000000004</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-76.212500000000006</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-65.019880000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-57.779029999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-44.306629999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-34.552319999999995</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-30.351940000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-30.373619999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-30.95721</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-30.879580000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-29.759910000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-30.868199999999998</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-29.82695</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-30.933599999999998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-32.403849999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-41.92792</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-51.250149999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-54.381110000000007</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-60.781059999999997</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-70.245609999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-78.789209999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-84.341250000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-95.260010000000008</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-105.9127</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-111.36409999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-116.87090000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-119.518</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-131.67019999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-136.0479</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-145.29810000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-148.80460000000002</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-148.84200000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-147.75189999999998</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-148.41499999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-149.00710000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-149.03830000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-149.20779999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-149.18619999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-148.19470000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-144.1431</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-141.1147</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-132.333</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-128.5609</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-124.63770000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-118.8219</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-111.9512</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-104.7539</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-94.444070000000011</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-89.15679999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-80.883209999999991</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-74.723730000000003</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-59.761300000000006</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-47.693840000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-37.128510000000006</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-34.592369999999995</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-30.101890000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-31.780360000000002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-31.737509999999997</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-30.929669999999998</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-30.716899999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-31.964510000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="565778312"/>
+        <c:axId val="565780272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="565778312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" b="1"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565780272"/>
+        <c:crossesAt val="-300"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="565780272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" b="1"/>
+                  <a:t>Y position (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565778312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83344055769681413"/>
+          <c:y val="0.24456302782567374"/>
+          <c:w val="0.11244462863194732"/>
+          <c:h val="0.15935860773269242"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7685,6 +10567,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7695,10 +11093,10 @@
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>516</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7717,7 +11115,579 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17690</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>170090</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5979219" y="3738562"/>
+          <a:ext cx="9016253" cy="4452938"/>
+          <a:chOff x="5979219" y="3738562"/>
+          <a:chExt cx="9016253" cy="4452938"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="Chart 3"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5979219" y="3738562"/>
+          <a:ext cx="9016253" cy="4452938"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9526065" y="6037106"/>
+            <a:ext cx="428515" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9523562" y="5231094"/>
+            <a:ext cx="428515" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>90%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9440038" y="6349991"/>
+            <a:ext cx="504824" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>rise time</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9259881" y="3946760"/>
+            <a:ext cx="825844" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>response time</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37061</cdr:x>
+      <cdr:y>0.03316</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37281</cdr:x>
+      <cdr:y>0.85882</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3219450" y="147638"/>
+          <a:ext cx="19050" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="22225">
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38872</cdr:x>
+      <cdr:y>0.54933</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40417</cdr:x>
+      <cdr:y>0.5508</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="Straight Connector 5"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="3534579" y="2446119"/>
+          <a:ext cx="140428" cy="6570"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="22225">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.4167</cdr:x>
+      <cdr:y>0.39037</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43244</cdr:x>
+      <cdr:y>0.39037</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="Straight Connector 7"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="3788955" y="1738313"/>
+          <a:ext cx="143119" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="22225">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39035</cdr:x>
+      <cdr:y>0.54439</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39078</cdr:x>
+      <cdr:y>0.67487</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="9" name="Straight Connector 8"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="3543300" y="2424113"/>
+          <a:ext cx="3896" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43297</cdr:x>
+      <cdr:y>0.3861</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43297</cdr:x>
+      <cdr:y>0.67273</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="12" name="Straight Connector 11"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3936916" y="1719263"/>
+          <a:ext cx="0" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39059</cdr:x>
+      <cdr:y>0.59671</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43256</cdr:x>
+      <cdr:y>0.59671</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3539476" y="2657109"/>
+          <a:ext cx="380354" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44302</cdr:x>
+      <cdr:y>0.03529</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.44521</cdr:x>
+      <cdr:y>0.86096</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="33" name="Straight Connector 32"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4021409" y="157163"/>
+          <a:ext cx="19906" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="22225">
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37159</cdr:x>
+      <cdr:y>0.09667</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.44355</cdr:x>
+      <cdr:y>0.09667</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3367349" y="430457"/>
+          <a:ext cx="652096" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7983,10 +11953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1101"/>
+  <dimension ref="A1:T1101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="U496" sqref="U496"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7995,9 +11965,10 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8007,8 +11978,30 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1">
+        <f>R1/1000</f>
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>-234.62730000000002</v>
+      </c>
+      <c r="T1">
+        <v>-87.818519999999992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8018,8 +12011,34 @@
       <c r="C2">
         <v>-87.818519999999992</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>4756</v>
+      </c>
+      <c r="G2">
+        <f>F2-4756</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>99.927730000000011</v>
+      </c>
+      <c r="I2">
+        <v>-29.643000000000001</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q65" si="0">R2/1000</f>
+        <v>4.9000000000000005E-5</v>
+      </c>
+      <c r="R2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="S2">
+        <v>-235.8733</v>
+      </c>
+      <c r="T2">
+        <v>-87.826639999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>49</v>
       </c>
@@ -8029,8 +12048,34 @@
       <c r="C3">
         <v>-87.826639999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>4806</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">F3-4756</f>
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>99.027240000000006</v>
+      </c>
+      <c r="I3">
+        <v>-31.147069999999999</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>9.9000000000000008E-5</v>
+      </c>
+      <c r="R3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="S3">
+        <v>-236.4914</v>
+      </c>
+      <c r="T3">
+        <v>-87.896020000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99</v>
       </c>
@@ -8040,8 +12085,39 @@
       <c r="C4">
         <v>-87.896020000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>4856</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>90.341260000000005</v>
+      </c>
+      <c r="I4">
+        <v>-30.725709999999999</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="R4">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="S4">
+        <v>-237.56319999999999</v>
+      </c>
+      <c r="T4">
+        <v>-88.719580000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>149</v>
       </c>
@@ -8051,8 +12127,46 @@
       <c r="C5">
         <v>-88.719580000000008</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4906</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H5">
+        <v>68.843249999999998</v>
+      </c>
+      <c r="I5">
+        <v>-30.70233</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>-139.19999999999999</v>
+      </c>
+      <c r="N5">
+        <v>-145</v>
+      </c>
+      <c r="O5">
+        <v>-149.19999999999999</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="R5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="S5">
+        <v>-237.73530000000002</v>
+      </c>
+      <c r="T5">
+        <v>-92.315469999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>199</v>
       </c>
@@ -8062,8 +12176,46 @@
       <c r="C6">
         <v>-92.315469999999991</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5006</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>-160.291</v>
+      </c>
+      <c r="I6">
+        <v>-30.926209999999998</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>-30.6</v>
+      </c>
+      <c r="N6">
+        <v>-29.6</v>
+      </c>
+      <c r="O6">
+        <v>-30.7</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>2.4899999999999998E-4</v>
+      </c>
+      <c r="R6">
+        <v>0.249</v>
+      </c>
+      <c r="S6">
+        <v>-237.6198</v>
+      </c>
+      <c r="T6">
+        <v>-95.923690000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>249</v>
       </c>
@@ -8073,8 +12225,49 @@
       <c r="C7">
         <v>-95.923690000000008</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>5056</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>-204.80260000000001</v>
+      </c>
+      <c r="I7">
+        <v>-31.068350000000002</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f>M6-M5</f>
+        <v>108.6</v>
+      </c>
+      <c r="N7">
+        <f>N6-N5</f>
+        <v>115.4</v>
+      </c>
+      <c r="O7">
+        <f>O6-O5</f>
+        <v>118.49999999999999</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>3.01E-4</v>
+      </c>
+      <c r="R7">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="S7">
+        <v>-237.51159999999999</v>
+      </c>
+      <c r="T7">
+        <v>-101.68510000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>301</v>
       </c>
@@ -8084,8 +12277,49 @@
       <c r="C8">
         <v>-101.68510000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>5106</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="H8">
+        <v>-218.0111</v>
+      </c>
+      <c r="I8">
+        <v>-35.474299999999999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <f>M5+(0.1*M7)</f>
+        <v>-128.33999999999997</v>
+      </c>
+      <c r="N8">
+        <f>N5+(0.1*N7)</f>
+        <v>-133.46</v>
+      </c>
+      <c r="O8">
+        <f>O5+(0.1*O7)</f>
+        <v>-137.35</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>3.5099999999999997E-4</v>
+      </c>
+      <c r="R8">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="S8">
+        <v>-237.84389999999999</v>
+      </c>
+      <c r="T8">
+        <v>-104.6009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>351</v>
       </c>
@@ -8095,8 +12329,49 @@
       <c r="C9">
         <v>-104.6009</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>5156</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="H9">
+        <v>-230.07589999999999</v>
+      </c>
+      <c r="I9">
+        <v>-45.574019999999997</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <f>M5+(0.9*M7)</f>
+        <v>-41.459999999999994</v>
+      </c>
+      <c r="N9">
+        <f>N5+(0.9*N7)</f>
+        <v>-41.139999999999986</v>
+      </c>
+      <c r="O9">
+        <f>O5+(0.9*O7)</f>
+        <v>-42.55</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>4.0100000000000004E-4</v>
+      </c>
+      <c r="R9">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="S9">
+        <v>-236.84790000000001</v>
+      </c>
+      <c r="T9">
+        <v>-108.3486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>401</v>
       </c>
@@ -8106,8 +12381,46 @@
       <c r="C10">
         <v>-108.3486</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>5206</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="H10">
+        <v>-234.83529999999999</v>
+      </c>
+      <c r="I10">
+        <v>-50.982790000000001</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>1.502</v>
+      </c>
+      <c r="N10">
+        <v>4.0039999999999996</v>
+      </c>
+      <c r="O10">
+        <v>6.4569999999999999</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>4.5100000000000001E-4</v>
+      </c>
+      <c r="R10">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="S10">
+        <v>-236.63059999999999</v>
+      </c>
+      <c r="T10">
+        <v>-109.97850000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>451</v>
       </c>
@@ -8117,8 +12430,46 @@
       <c r="C11">
         <v>-109.97850000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>5256</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>-233.68790000000001</v>
+      </c>
+      <c r="I11">
+        <v>-53.575110000000002</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>2.13</v>
+      </c>
+      <c r="N11">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O11">
+        <v>7.056</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="R11">
+        <v>0.501</v>
+      </c>
+      <c r="S11">
+        <v>-236.04500000000002</v>
+      </c>
+      <c r="T11">
+        <v>-117.0003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>501</v>
       </c>
@@ -8128,8 +12479,49 @@
       <c r="C12">
         <v>-117.0003</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>5307</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>551</v>
+      </c>
+      <c r="H12">
+        <v>-229.7527</v>
+      </c>
+      <c r="I12">
+        <v>-61.745269999999998</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f>M11-M10</f>
+        <v>0.62799999999999989</v>
+      </c>
+      <c r="N12">
+        <f>N11-N10</f>
+        <v>0.6460000000000008</v>
+      </c>
+      <c r="O12">
+        <f>O11-O10</f>
+        <v>0.5990000000000002</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>5.5100000000000006E-4</v>
+      </c>
+      <c r="R12">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="S12">
+        <v>-236.04570000000001</v>
+      </c>
+      <c r="T12">
+        <v>-119.3403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>551</v>
       </c>
@@ -8139,8 +12531,41 @@
       <c r="C13">
         <v>-119.3403</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>5356</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <v>-227.1524</v>
+      </c>
+      <c r="I13">
+        <v>-66.373180000000005</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="2">
+        <f>AVERAGE(M12:O12)</f>
+        <v>0.62433333333333363</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>6.0099999999999997E-4</v>
+      </c>
+      <c r="R13">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="S13">
+        <v>-236.7636</v>
+      </c>
+      <c r="T13">
+        <v>-122.9282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>601</v>
       </c>
@@ -8150,8 +12575,34 @@
       <c r="C14">
         <v>-122.9282</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>5406</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="H14">
+        <v>-227.5702</v>
+      </c>
+      <c r="I14">
+        <v>-76.682929999999999</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>6.5099999999999999E-4</v>
+      </c>
+      <c r="R14">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="S14">
+        <v>-237.71850000000001</v>
+      </c>
+      <c r="T14">
+        <v>-125.2715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>651</v>
       </c>
@@ -8161,8 +12612,34 @@
       <c r="C15">
         <v>-125.2715</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>5456</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="H15">
+        <v>-227.36880000000002</v>
+      </c>
+      <c r="I15">
+        <v>-81.594349999999991</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>7.0099999999999991E-4</v>
+      </c>
+      <c r="R15">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="S15">
+        <v>-238.47129999999999</v>
+      </c>
+      <c r="T15">
+        <v>-129.32309999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>701</v>
       </c>
@@ -8172,8 +12649,34 @@
       <c r="C16">
         <v>-129.32309999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>5507</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+      <c r="H16">
+        <v>-226.66410000000002</v>
+      </c>
+      <c r="I16">
+        <v>-94.736800000000002</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>7.5100000000000004E-4</v>
+      </c>
+      <c r="R16">
+        <v>0.751</v>
+      </c>
+      <c r="S16">
+        <v>-238.88899999999998</v>
+      </c>
+      <c r="T16">
+        <v>-134.60829999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>751</v>
       </c>
@@ -8183,8 +12686,34 @@
       <c r="C17">
         <v>-134.60829999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>5556</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="H17">
+        <v>-227.28110000000001</v>
+      </c>
+      <c r="I17">
+        <v>-98.183389999999989</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>8.0100000000000006E-4</v>
+      </c>
+      <c r="R17">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="S17">
+        <v>-239.38989999999998</v>
+      </c>
+      <c r="T17">
+        <v>-136.9042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>801</v>
       </c>
@@ -8194,8 +12723,34 @@
       <c r="C18">
         <v>-136.9042</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>5606</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="H18">
+        <v>-229.036</v>
+      </c>
+      <c r="I18">
+        <v>-106.6281</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>8.5099999999999998E-4</v>
+      </c>
+      <c r="R18">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="S18">
+        <v>-240.38660000000002</v>
+      </c>
+      <c r="T18">
+        <v>-139.5453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>851</v>
       </c>
@@ -8205,8 +12760,34 @@
       <c r="C19">
         <v>-139.5453</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>5656</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H19">
+        <v>-230.06829999999999</v>
+      </c>
+      <c r="I19">
+        <v>-114.2222</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>9.01E-4</v>
+      </c>
+      <c r="R19">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="S19">
+        <v>-241.71350000000001</v>
+      </c>
+      <c r="T19">
+        <v>-140.624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>901</v>
       </c>
@@ -8216,8 +12797,34 @@
       <c r="C20">
         <v>-140.624</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>5707</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>951</v>
+      </c>
+      <c r="H20">
+        <v>-231.63120000000001</v>
+      </c>
+      <c r="I20">
+        <v>-121.1035</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>9.5099999999999991E-4</v>
+      </c>
+      <c r="R20">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="S20">
+        <v>-242.96129999999999</v>
+      </c>
+      <c r="T20">
+        <v>-140.1414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>951</v>
       </c>
@@ -8227,8 +12834,34 @@
       <c r="C21">
         <v>-140.1414</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>5756</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>-233.49950000000001</v>
+      </c>
+      <c r="I21">
+        <v>-127.68189999999998</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="R21">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S21">
+        <v>-243.96639999999999</v>
+      </c>
+      <c r="T21">
+        <v>-140.01069999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -8238,8 +12871,34 @@
       <c r="C22">
         <v>-140.01069999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>5806</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="H22">
+        <v>-235.20340000000002</v>
+      </c>
+      <c r="I22">
+        <v>-136.3252</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>1.0509999999999999E-3</v>
+      </c>
+      <c r="R22">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="S22">
+        <v>-246.07429999999999</v>
+      </c>
+      <c r="T22">
+        <v>-140.75190000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1051</v>
       </c>
@@ -8249,8 +12908,34 @@
       <c r="C23">
         <v>-140.75190000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>5856</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="H23">
+        <v>-236.30770000000001</v>
+      </c>
+      <c r="I23">
+        <v>-140.03059999999999</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>1.101E-3</v>
+      </c>
+      <c r="R23">
+        <v>1.101</v>
+      </c>
+      <c r="S23">
+        <v>-249.6345</v>
+      </c>
+      <c r="T23">
+        <v>-141.06630000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1101</v>
       </c>
@@ -8260,8 +12945,34 @@
       <c r="C24">
         <v>-141.06630000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>5906</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1150</v>
+      </c>
+      <c r="H24">
+        <v>-238.38249999999999</v>
+      </c>
+      <c r="I24">
+        <v>-148.3167</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>1.1510000000000001E-3</v>
+      </c>
+      <c r="R24">
+        <v>1.151</v>
+      </c>
+      <c r="S24">
+        <v>-237.47309999999999</v>
+      </c>
+      <c r="T24">
+        <v>-141.1079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1151</v>
       </c>
@@ -8271,8 +12982,34 @@
       <c r="C25">
         <v>-141.1079</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>5957</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1201</v>
+      </c>
+      <c r="H25">
+        <v>-238.56830000000002</v>
+      </c>
+      <c r="I25">
+        <v>-150.84610000000001</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>1.201E-3</v>
+      </c>
+      <c r="R25">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="S25">
+        <v>-139.72630000000001</v>
+      </c>
+      <c r="T25">
+        <v>-140.8758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1201</v>
       </c>
@@ -8282,8 +13019,34 @@
       <c r="C26">
         <v>-140.8758</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>6006</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="H26">
+        <v>-238.58539999999999</v>
+      </c>
+      <c r="I26">
+        <v>-148.51600000000002</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>1.2509999999999999E-3</v>
+      </c>
+      <c r="R26">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="S26">
+        <v>-84.916870000000003</v>
+      </c>
+      <c r="T26">
+        <v>-140.39189999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1251</v>
       </c>
@@ -8293,8 +13056,34 @@
       <c r="C27">
         <v>-140.39189999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>6056</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+      <c r="H27">
+        <v>-237.15539999999999</v>
+      </c>
+      <c r="I27">
+        <v>-147.6242</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>1.3029999999999999E-3</v>
+      </c>
+      <c r="R27">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="S27">
+        <v>31.440370000000001</v>
+      </c>
+      <c r="T27">
+        <v>-139.98089999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1303</v>
       </c>
@@ -8304,8 +13093,34 @@
       <c r="C28">
         <v>-139.98089999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>6106</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
+      <c r="H28">
+        <v>-237.3536</v>
+      </c>
+      <c r="I28">
+        <v>-148.47890000000001</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>1.3520000000000001E-3</v>
+      </c>
+      <c r="R28">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="S28">
+        <v>53.856909999999999</v>
+      </c>
+      <c r="T28">
+        <v>-139.99010000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1352</v>
       </c>
@@ -8315,8 +13130,34 @@
       <c r="C29">
         <v>-139.99010000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>6156</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="H29">
+        <v>-177.3442</v>
+      </c>
+      <c r="I29">
+        <v>-149.7756</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>1.4019999999999998E-3</v>
+      </c>
+      <c r="R29">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="S29">
+        <v>68.956760000000003</v>
+      </c>
+      <c r="T29">
+        <v>-139.22739999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1402</v>
       </c>
@@ -8326,8 +13167,34 @@
       <c r="C30">
         <v>-139.22739999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>6206</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1450</v>
+      </c>
+      <c r="H30">
+        <v>-21.770140000000001</v>
+      </c>
+      <c r="I30">
+        <v>-149.10839999999999</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>1.4519999999999999E-3</v>
+      </c>
+      <c r="R30">
+        <v>1.452</v>
+      </c>
+      <c r="S30">
+        <v>86.40382000000001</v>
+      </c>
+      <c r="T30">
+        <v>-136.83750000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1452</v>
       </c>
@@ -8337,8 +13204,34 @@
       <c r="C31">
         <v>-136.83750000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>6256</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="H31">
+        <v>78.763540000000006</v>
+      </c>
+      <c r="I31">
+        <v>-149.04570000000001</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>1.5020000000000001E-3</v>
+      </c>
+      <c r="R31">
+        <v>1.502</v>
+      </c>
+      <c r="S31">
+        <v>99.189080000000004</v>
+      </c>
+      <c r="T31">
+        <v>-129.83099999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1502</v>
       </c>
@@ -8348,8 +13241,34 @@
       <c r="C32">
         <v>-129.83099999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>6306</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1550</v>
+      </c>
+      <c r="H32">
+        <v>75.044990000000013</v>
+      </c>
+      <c r="I32">
+        <v>-149.2654</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>1.552E-3</v>
+      </c>
+      <c r="R32">
+        <v>1.552</v>
+      </c>
+      <c r="S32">
+        <v>106.292</v>
+      </c>
+      <c r="T32">
+        <v>-125.53619999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1552</v>
       </c>
@@ -8359,8 +13278,34 @@
       <c r="C33">
         <v>-125.53619999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>6356</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="H33">
+        <v>64.704490000000007</v>
+      </c>
+      <c r="I33">
+        <v>-149.15020000000001</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>1.6020000000000001E-3</v>
+      </c>
+      <c r="R33">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="S33">
+        <v>105.6806</v>
+      </c>
+      <c r="T33">
+        <v>-120.84820000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1602</v>
       </c>
@@ -8370,8 +13315,34 @@
       <c r="C34">
         <v>-120.84820000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>6406</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1650</v>
+      </c>
+      <c r="H34">
+        <v>65.503389999999996</v>
+      </c>
+      <c r="I34">
+        <v>-143.53460000000001</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>1.6519999999999998E-3</v>
+      </c>
+      <c r="R34">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="S34">
+        <v>105.56559999999999</v>
+      </c>
+      <c r="T34">
+        <v>-114.2205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1652</v>
       </c>
@@ -8381,8 +13352,34 @@
       <c r="C35">
         <v>-114.2205</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>6457</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1701</v>
+      </c>
+      <c r="H35">
+        <v>71.000990000000002</v>
+      </c>
+      <c r="I35">
+        <v>-135.6003</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>1.702E-3</v>
+      </c>
+      <c r="R35">
+        <v>1.702</v>
+      </c>
+      <c r="S35">
+        <v>104.17740000000001</v>
+      </c>
+      <c r="T35">
+        <v>-109.4892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1702</v>
       </c>
@@ -8392,8 +13389,34 @@
       <c r="C36">
         <v>-109.4892</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>6506</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+      <c r="H36">
+        <v>70.604759999999999</v>
+      </c>
+      <c r="I36">
+        <v>-132.44210000000001</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>1.7520000000000001E-3</v>
+      </c>
+      <c r="R36">
+        <v>1.752</v>
+      </c>
+      <c r="S36">
+        <v>105.4605</v>
+      </c>
+      <c r="T36">
+        <v>-104.77590000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1752</v>
       </c>
@@ -8403,8 +13426,34 @@
       <c r="C37">
         <v>-104.77590000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>6556</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="H37">
+        <v>72.864189999999994</v>
+      </c>
+      <c r="I37">
+        <v>-126.97020000000001</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>1.802E-3</v>
+      </c>
+      <c r="R37">
+        <v>1.802</v>
+      </c>
+      <c r="S37">
+        <v>104.3775</v>
+      </c>
+      <c r="T37">
+        <v>-92.145409999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1802</v>
       </c>
@@ -8414,8 +13463,34 @@
       <c r="C38">
         <v>-92.145409999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>6606</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1850</v>
+      </c>
+      <c r="H38">
+        <v>73.885220000000004</v>
+      </c>
+      <c r="I38">
+        <v>-124.2778</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>1.8520000000000001E-3</v>
+      </c>
+      <c r="R38">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="S38">
+        <v>106.2159</v>
+      </c>
+      <c r="T38">
+        <v>-87.689790000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1852</v>
       </c>
@@ -8425,8 +13500,21 @@
       <c r="C39">
         <v>-87.689790000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>1.9019999999999998E-3</v>
+      </c>
+      <c r="R39">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="S39">
+        <v>108.58149999999999</v>
+      </c>
+      <c r="T39">
+        <v>-83.830550000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1902</v>
       </c>
@@ -8436,8 +13524,21 @@
       <c r="C40">
         <v>-83.830550000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>1.952E-3</v>
+      </c>
+      <c r="R40">
+        <v>1.952</v>
+      </c>
+      <c r="S40">
+        <v>110.9787</v>
+      </c>
+      <c r="T40">
+        <v>-79.878550000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1952</v>
       </c>
@@ -8447,8 +13548,21 @@
       <c r="C41">
         <v>-79.878550000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>2.0019999999999999E-3</v>
+      </c>
+      <c r="R41">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="S41">
+        <v>117.2861</v>
+      </c>
+      <c r="T41">
+        <v>-61.764939999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2002</v>
       </c>
@@ -8458,8 +13572,21 @@
       <c r="C42">
         <v>-61.764939999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>2.052E-3</v>
+      </c>
+      <c r="R42">
+        <v>2.052</v>
+      </c>
+      <c r="S42">
+        <v>118.42869999999999</v>
+      </c>
+      <c r="T42">
+        <v>-55.485569999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2052</v>
       </c>
@@ -8469,8 +13596,21 @@
       <c r="C43">
         <v>-55.485569999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>2.1030000000000003E-3</v>
+      </c>
+      <c r="R43">
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="S43">
+        <v>121.99019999999999</v>
+      </c>
+      <c r="T43">
+        <v>-43.849270000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2103</v>
       </c>
@@ -8480,8 +13620,21 @@
       <c r="C44">
         <v>-43.849270000000004</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>2.1540000000000001E-3</v>
+      </c>
+      <c r="R44">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="S44">
+        <v>125.10489999999999</v>
+      </c>
+      <c r="T44">
+        <v>-36.5319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2154</v>
       </c>
@@ -8491,8 +13644,21 @@
       <c r="C45">
         <v>-36.5319</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>2.2040000000000002E-3</v>
+      </c>
+      <c r="R45">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="S45">
+        <v>126.7953</v>
+      </c>
+      <c r="T45">
+        <v>-31.637350000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2204</v>
       </c>
@@ -8502,8 +13668,21 @@
       <c r="C46">
         <v>-31.637350000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>2.2539999999999999E-3</v>
+      </c>
+      <c r="R46">
+        <v>2.254</v>
+      </c>
+      <c r="S46">
+        <v>129.78200000000001</v>
+      </c>
+      <c r="T46">
+        <v>-29.636520000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2254</v>
       </c>
@@ -8513,8 +13692,21 @@
       <c r="C47">
         <v>-29.636520000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>2.3039999999999996E-3</v>
+      </c>
+      <c r="R47">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="S47">
+        <v>129.69149999999999</v>
+      </c>
+      <c r="T47">
+        <v>-30.518139999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2304</v>
       </c>
@@ -8524,8 +13716,21 @@
       <c r="C48">
         <v>-30.518139999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>2.3540000000000002E-3</v>
+      </c>
+      <c r="R48">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="S48">
+        <v>125.29199999999999</v>
+      </c>
+      <c r="T48">
+        <v>-30.644680000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2354</v>
       </c>
@@ -8535,8 +13740,21 @@
       <c r="C49">
         <v>-30.644680000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>2.4039999999999999E-3</v>
+      </c>
+      <c r="R49">
+        <v>2.4039999999999999</v>
+      </c>
+      <c r="S49">
+        <v>111.39960000000001</v>
+      </c>
+      <c r="T49">
+        <v>-30.502649999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2404</v>
       </c>
@@ -8546,8 +13764,21 @@
       <c r="C50">
         <v>-30.502649999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>2.454E-3</v>
+      </c>
+      <c r="R50">
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="S50">
+        <v>43.01728</v>
+      </c>
+      <c r="T50">
+        <v>-30.711649999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2454</v>
       </c>
@@ -8557,8 +13788,21 @@
       <c r="C51">
         <v>-30.711649999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>2.5539999999999998E-3</v>
+      </c>
+      <c r="R51">
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="S51">
+        <v>-149.5428</v>
+      </c>
+      <c r="T51">
+        <v>-30.664549999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2554</v>
       </c>
@@ -8568,8 +13812,21 @@
       <c r="C52">
         <v>-30.664549999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>2.604E-3</v>
+      </c>
+      <c r="R52">
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="S52">
+        <v>-239.5898</v>
+      </c>
+      <c r="T52">
+        <v>-30.014880000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2604</v>
       </c>
@@ -8579,8 +13836,21 @@
       <c r="C53">
         <v>-30.014880000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>2.8039999999999996E-3</v>
+      </c>
+      <c r="R53">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="S53">
+        <v>-231.36619999999999</v>
+      </c>
+      <c r="T53">
+        <v>-53.195650000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2804</v>
       </c>
@@ -8590,8 +13860,21 @@
       <c r="C54">
         <v>-53.195650000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>2.8540000000000002E-3</v>
+      </c>
+      <c r="R54">
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="S54">
+        <v>-226.15049999999999</v>
+      </c>
+      <c r="T54">
+        <v>-59.293400000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2854</v>
       </c>
@@ -8601,8 +13884,21 @@
       <c r="C55">
         <v>-59.293400000000005</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>2.9039999999999999E-3</v>
+      </c>
+      <c r="R55">
+        <v>2.9039999999999999</v>
+      </c>
+      <c r="S55">
+        <v>-224.4119</v>
+      </c>
+      <c r="T55">
+        <v>-69.073179999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2904</v>
       </c>
@@ -8612,8 +13908,21 @@
       <c r="C56">
         <v>-69.073179999999994</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>2.954E-3</v>
+      </c>
+      <c r="R56">
+        <v>2.9540000000000002</v>
+      </c>
+      <c r="S56">
+        <v>-223.4083</v>
+      </c>
+      <c r="T56">
+        <v>-73.612090000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2954</v>
       </c>
@@ -8623,8 +13932,21 @@
       <c r="C57">
         <v>-73.612090000000009</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>3.0040000000000002E-3</v>
+      </c>
+      <c r="R57">
+        <v>3.004</v>
+      </c>
+      <c r="S57">
+        <v>-222.4034</v>
+      </c>
+      <c r="T57">
+        <v>-83.658670000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3004</v>
       </c>
@@ -8634,8 +13956,21 @@
       <c r="C58">
         <v>-83.658670000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>3.0539999999999999E-3</v>
+      </c>
+      <c r="R58">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="S58">
+        <v>-222.6027</v>
+      </c>
+      <c r="T58">
+        <v>-92.39958</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3054</v>
       </c>
@@ -8645,8 +13980,21 @@
       <c r="C59">
         <v>-92.39958</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>3.104E-3</v>
+      </c>
+      <c r="R59">
+        <v>3.1040000000000001</v>
+      </c>
+      <c r="S59">
+        <v>-221.77250000000001</v>
+      </c>
+      <c r="T59">
+        <v>-98.497669999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3104</v>
       </c>
@@ -8656,8 +14004,21 @@
       <c r="C60">
         <v>-98.497669999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>3.1540000000000001E-3</v>
+      </c>
+      <c r="R60">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="S60">
+        <v>-221.1848</v>
+      </c>
+      <c r="T60">
+        <v>-105.38889999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3154</v>
       </c>
@@ -8667,8 +14028,21 @@
       <c r="C61">
         <v>-105.38889999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>3.2040000000000003E-3</v>
+      </c>
+      <c r="R61">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="S61">
+        <v>-220.43350000000001</v>
+      </c>
+      <c r="T61">
+        <v>-111.11999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3204</v>
       </c>
@@ -8678,8 +14052,21 @@
       <c r="C62">
         <v>-111.11999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>3.2539999999999999E-3</v>
+      </c>
+      <c r="R62">
+        <v>3.254</v>
+      </c>
+      <c r="S62">
+        <v>-219.87870000000001</v>
+      </c>
+      <c r="T62">
+        <v>-121.40639999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3254</v>
       </c>
@@ -8689,8 +14076,21 @@
       <c r="C63">
         <v>-121.40639999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>3.3039999999999996E-3</v>
+      </c>
+      <c r="R63">
+        <v>3.3039999999999998</v>
+      </c>
+      <c r="S63">
+        <v>-220.26780000000002</v>
+      </c>
+      <c r="T63">
+        <v>-128.96560000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3304</v>
       </c>
@@ -8700,8 +14100,21 @@
       <c r="C64">
         <v>-128.96560000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>3.3540000000000002E-3</v>
+      </c>
+      <c r="R64">
+        <v>3.3540000000000001</v>
+      </c>
+      <c r="S64">
+        <v>-220.84970000000001</v>
+      </c>
+      <c r="T64">
+        <v>-133.35810000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3354</v>
       </c>
@@ -8711,8 +14124,21 @@
       <c r="C65">
         <v>-133.35810000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>3.4039999999999999E-3</v>
+      </c>
+      <c r="R65">
+        <v>3.4039999999999999</v>
+      </c>
+      <c r="S65">
+        <v>-221.22990000000001</v>
+      </c>
+      <c r="T65">
+        <v>-140.96359999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3404</v>
       </c>
@@ -8722,8 +14148,21 @@
       <c r="C66">
         <v>-140.96359999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <f t="shared" ref="Q66:Q129" si="2">R66/1000</f>
+        <v>3.454E-3</v>
+      </c>
+      <c r="R66">
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="S66">
+        <v>-220.84490000000002</v>
+      </c>
+      <c r="T66">
+        <v>-147.06060000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3454</v>
       </c>
@@ -8733,8 +14172,21 @@
       <c r="C67">
         <v>-147.06060000000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <f t="shared" si="2"/>
+        <v>3.5040000000000002E-3</v>
+      </c>
+      <c r="R67">
+        <v>3.504</v>
+      </c>
+      <c r="S67">
+        <v>-220.65109999999999</v>
+      </c>
+      <c r="T67">
+        <v>-150.58849999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3504</v>
       </c>
@@ -8744,8 +14196,21 @@
       <c r="C68">
         <v>-150.58849999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>3.5539999999999999E-3</v>
+      </c>
+      <c r="R68">
+        <v>3.5539999999999998</v>
+      </c>
+      <c r="S68">
+        <v>-221.06110000000001</v>
+      </c>
+      <c r="T68">
+        <v>-148.8235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3554</v>
       </c>
@@ -8755,8 +14220,21 @@
       <c r="C69">
         <v>-148.8235</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <f t="shared" si="2"/>
+        <v>3.604E-3</v>
+      </c>
+      <c r="R69">
+        <v>3.6040000000000001</v>
+      </c>
+      <c r="S69">
+        <v>-219.9682</v>
+      </c>
+      <c r="T69">
+        <v>-147.5883</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3604</v>
       </c>
@@ -8766,8 +14244,21 @@
       <c r="C70">
         <v>-147.5883</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <f t="shared" si="2"/>
+        <v>3.6540000000000001E-3</v>
+      </c>
+      <c r="R70">
+        <v>3.6539999999999999</v>
+      </c>
+      <c r="S70">
+        <v>-217.88640000000001</v>
+      </c>
+      <c r="T70">
+        <v>-148.5299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3654</v>
       </c>
@@ -8777,8 +14268,21 @@
       <c r="C71">
         <v>-148.5299</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <f t="shared" si="2"/>
+        <v>3.7040000000000003E-3</v>
+      </c>
+      <c r="R71">
+        <v>3.7040000000000002</v>
+      </c>
+      <c r="S71">
+        <v>-163.47229999999999</v>
+      </c>
+      <c r="T71">
+        <v>-149.70869999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3704</v>
       </c>
@@ -8788,8 +14292,21 @@
       <c r="C72">
         <v>-149.70869999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <f t="shared" si="2"/>
+        <v>3.754E-3</v>
+      </c>
+      <c r="R72">
+        <v>3.754</v>
+      </c>
+      <c r="S72">
+        <v>-45.518419999999999</v>
+      </c>
+      <c r="T72">
+        <v>-147.0976</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3754</v>
       </c>
@@ -8799,8 +14316,21 @@
       <c r="C73">
         <v>-147.0976</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <f t="shared" si="2"/>
+        <v>3.8039999999999997E-3</v>
+      </c>
+      <c r="R73">
+        <v>3.8039999999999998</v>
+      </c>
+      <c r="S73">
+        <v>6.858752</v>
+      </c>
+      <c r="T73">
+        <v>-147.1026</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3804</v>
       </c>
@@ -8810,8 +14340,21 @@
       <c r="C74">
         <v>-147.1026</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <f t="shared" si="2"/>
+        <v>3.8540000000000002E-3</v>
+      </c>
+      <c r="R74">
+        <v>3.8540000000000001</v>
+      </c>
+      <c r="S74">
+        <v>43.688510000000001</v>
+      </c>
+      <c r="T74">
+        <v>-147.42019999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3854</v>
       </c>
@@ -8821,8 +14364,21 @@
       <c r="C75">
         <v>-147.42019999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <f t="shared" si="2"/>
+        <v>3.9039999999999999E-3</v>
+      </c>
+      <c r="R75">
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="S75">
+        <v>46.474290000000003</v>
+      </c>
+      <c r="T75">
+        <v>-145.81820000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3904</v>
       </c>
@@ -8832,8 +14388,21 @@
       <c r="C76">
         <v>-145.81820000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <f t="shared" si="2"/>
+        <v>3.954E-3</v>
+      </c>
+      <c r="R76">
+        <v>3.9540000000000002</v>
+      </c>
+      <c r="S76">
+        <v>54.022919999999999</v>
+      </c>
+      <c r="T76">
+        <v>-141.43800000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3954</v>
       </c>
@@ -8843,8 +14412,21 @@
       <c r="C77">
         <v>-141.43800000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <f t="shared" si="2"/>
+        <v>4.0039999999999997E-3</v>
+      </c>
+      <c r="R77">
+        <v>4.0039999999999996</v>
+      </c>
+      <c r="S77">
+        <v>57.491289999999999</v>
+      </c>
+      <c r="T77">
+        <v>-132.78570000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4004</v>
       </c>
@@ -8854,8 +14436,21 @@
       <c r="C78">
         <v>-132.78570000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <f t="shared" si="2"/>
+        <v>4.0540000000000003E-3</v>
+      </c>
+      <c r="R78">
+        <v>4.0540000000000003</v>
+      </c>
+      <c r="S78">
+        <v>60.210350000000005</v>
+      </c>
+      <c r="T78">
+        <v>-129.0069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4054</v>
       </c>
@@ -8865,8 +14460,21 @@
       <c r="C79">
         <v>-129.0069</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <f t="shared" si="2"/>
+        <v>4.104E-3</v>
+      </c>
+      <c r="R79">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="S79">
+        <v>64.986789999999999</v>
+      </c>
+      <c r="T79">
+        <v>-124.5642</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4104</v>
       </c>
@@ -8876,8 +14484,21 @@
       <c r="C80">
         <v>-124.5642</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <f t="shared" si="2"/>
+        <v>4.1539999999999997E-3</v>
+      </c>
+      <c r="R80">
+        <v>4.1539999999999999</v>
+      </c>
+      <c r="S80">
+        <v>65.571860000000001</v>
+      </c>
+      <c r="T80">
+        <v>-122.8443</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4154</v>
       </c>
@@ -8887,8 +14508,21 @@
       <c r="C81">
         <v>-122.8443</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <f t="shared" si="2"/>
+        <v>4.2039999999999994E-3</v>
+      </c>
+      <c r="R81">
+        <v>4.2039999999999997</v>
+      </c>
+      <c r="S81">
+        <v>66.690490000000011</v>
+      </c>
+      <c r="T81">
+        <v>-114.7111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4204</v>
       </c>
@@ -8898,8 +14532,21 @@
       <c r="C82">
         <v>-114.7111</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <f t="shared" si="2"/>
+        <v>4.254E-3</v>
+      </c>
+      <c r="R82">
+        <v>4.2539999999999996</v>
+      </c>
+      <c r="S82">
+        <v>68.483050000000006</v>
+      </c>
+      <c r="T82">
+        <v>-107.2978</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4254</v>
       </c>
@@ -8909,8 +14556,21 @@
       <c r="C83">
         <v>-107.2978</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <f t="shared" si="2"/>
+        <v>4.3040000000000005E-3</v>
+      </c>
+      <c r="R83">
+        <v>4.3040000000000003</v>
+      </c>
+      <c r="S83">
+        <v>70.067850000000007</v>
+      </c>
+      <c r="T83">
+        <v>-98.37612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4304</v>
       </c>
@@ -8920,8 +14580,21 @@
       <c r="C84">
         <v>-98.37612</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <f t="shared" si="2"/>
+        <v>4.3540000000000002E-3</v>
+      </c>
+      <c r="R84">
+        <v>4.3540000000000001</v>
+      </c>
+      <c r="S84">
+        <v>72.024820000000005</v>
+      </c>
+      <c r="T84">
+        <v>-94.397590000000008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4354</v>
       </c>
@@ -8931,8 +14604,21 @@
       <c r="C85">
         <v>-94.397590000000008</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <f t="shared" si="2"/>
+        <v>4.4039999999999999E-3</v>
+      </c>
+      <c r="R85">
+        <v>4.4039999999999999</v>
+      </c>
+      <c r="S85">
+        <v>73.539699999999996</v>
+      </c>
+      <c r="T85">
+        <v>-88.179779999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4404</v>
       </c>
@@ -8942,8 +14628,21 @@
       <c r="C86">
         <v>-88.179779999999994</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <f t="shared" si="2"/>
+        <v>4.4539999999999996E-3</v>
+      </c>
+      <c r="R86">
+        <v>4.4539999999999997</v>
+      </c>
+      <c r="S86">
+        <v>75.912540000000007</v>
+      </c>
+      <c r="T86">
+        <v>-82.952349999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4454</v>
       </c>
@@ -8953,8 +14652,21 @@
       <c r="C87">
         <v>-82.952349999999996</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <f t="shared" si="2"/>
+        <v>4.5039999999999993E-3</v>
+      </c>
+      <c r="R87">
+        <v>4.5039999999999996</v>
+      </c>
+      <c r="S87">
+        <v>81.264879999999991</v>
+      </c>
+      <c r="T87">
+        <v>-66.348030000000008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4504</v>
       </c>
@@ -8964,8 +14676,21 @@
       <c r="C88">
         <v>-66.348030000000008</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <f t="shared" si="2"/>
+        <v>4.5539999999999999E-3</v>
+      </c>
+      <c r="R88">
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="S88">
+        <v>86.254349999999988</v>
+      </c>
+      <c r="T88">
+        <v>-53.077129999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4554</v>
       </c>
@@ -8975,8 +14700,21 @@
       <c r="C89">
         <v>-53.077129999999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>4.6040000000000005E-3</v>
+      </c>
+      <c r="R89">
+        <v>4.6040000000000001</v>
+      </c>
+      <c r="S89">
+        <v>89.418279999999996</v>
+      </c>
+      <c r="T89">
+        <v>-45.788200000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4604</v>
       </c>
@@ -8986,8 +14724,21 @@
       <c r="C90">
         <v>-45.788200000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <f t="shared" si="2"/>
+        <v>4.6550000000000003E-3</v>
+      </c>
+      <c r="R90">
+        <v>4.6550000000000002</v>
+      </c>
+      <c r="S90">
+        <v>93.527439999999999</v>
+      </c>
+      <c r="T90">
+        <v>-38.981529999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4655</v>
       </c>
@@ -8997,8 +14748,21 @@
       <c r="C91">
         <v>-38.981529999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <f t="shared" si="2"/>
+        <v>4.7039999999999998E-3</v>
+      </c>
+      <c r="R91">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="S91">
+        <v>98.358650000000011</v>
+      </c>
+      <c r="T91">
+        <v>-31.057639999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4704</v>
       </c>
@@ -9008,8 +14772,21 @@
       <c r="C92">
         <v>-31.057639999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <f t="shared" si="2"/>
+        <v>4.7559999999999998E-3</v>
+      </c>
+      <c r="R92">
+        <v>4.7560000000000002</v>
+      </c>
+      <c r="S92">
+        <v>99.927730000000011</v>
+      </c>
+      <c r="T92">
+        <v>-29.643000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4756</v>
       </c>
@@ -9019,8 +14796,21 @@
       <c r="C93">
         <v>-29.643000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <f t="shared" si="2"/>
+        <v>4.8060000000000004E-3</v>
+      </c>
+      <c r="R93">
+        <v>4.806</v>
+      </c>
+      <c r="S93">
+        <v>99.027240000000006</v>
+      </c>
+      <c r="T93">
+        <v>-31.147069999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4806</v>
       </c>
@@ -9030,8 +14820,21 @@
       <c r="C94">
         <v>-31.147069999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <f t="shared" si="2"/>
+        <v>4.8560000000000001E-3</v>
+      </c>
+      <c r="R94">
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="S94">
+        <v>90.341260000000005</v>
+      </c>
+      <c r="T94">
+        <v>-30.725709999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4856</v>
       </c>
@@ -9041,8 +14844,21 @@
       <c r="C95">
         <v>-30.725709999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <f t="shared" si="2"/>
+        <v>4.9059999999999998E-3</v>
+      </c>
+      <c r="R95">
+        <v>4.9059999999999997</v>
+      </c>
+      <c r="S95">
+        <v>68.843249999999998</v>
+      </c>
+      <c r="T95">
+        <v>-30.70233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4906</v>
       </c>
@@ -9052,8 +14868,21 @@
       <c r="C96">
         <v>-30.70233</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <f t="shared" si="2"/>
+        <v>5.006E-3</v>
+      </c>
+      <c r="R96">
+        <v>5.0060000000000002</v>
+      </c>
+      <c r="S96">
+        <v>-160.291</v>
+      </c>
+      <c r="T96">
+        <v>-30.926209999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5006</v>
       </c>
@@ -9063,8 +14892,21 @@
       <c r="C97">
         <v>-30.926209999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <f t="shared" si="2"/>
+        <v>5.0559999999999997E-3</v>
+      </c>
+      <c r="R97">
+        <v>5.056</v>
+      </c>
+      <c r="S97">
+        <v>-204.80260000000001</v>
+      </c>
+      <c r="T97">
+        <v>-31.068350000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5056</v>
       </c>
@@ -9074,8 +14916,21 @@
       <c r="C98">
         <v>-31.068350000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <f t="shared" si="2"/>
+        <v>5.1060000000000003E-3</v>
+      </c>
+      <c r="R98">
+        <v>5.1059999999999999</v>
+      </c>
+      <c r="S98">
+        <v>-218.0111</v>
+      </c>
+      <c r="T98">
+        <v>-35.474299999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5106</v>
       </c>
@@ -9085,8 +14940,21 @@
       <c r="C99">
         <v>-35.474299999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <f t="shared" si="2"/>
+        <v>5.156E-3</v>
+      </c>
+      <c r="R99">
+        <v>5.1559999999999997</v>
+      </c>
+      <c r="S99">
+        <v>-230.07589999999999</v>
+      </c>
+      <c r="T99">
+        <v>-45.574019999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5156</v>
       </c>
@@ -9096,8 +14964,21 @@
       <c r="C100">
         <v>-45.574019999999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <f t="shared" si="2"/>
+        <v>5.2060000000000006E-3</v>
+      </c>
+      <c r="R100">
+        <v>5.2060000000000004</v>
+      </c>
+      <c r="S100">
+        <v>-234.83529999999999</v>
+      </c>
+      <c r="T100">
+        <v>-50.982790000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5206</v>
       </c>
@@ -9107,8 +14988,21 @@
       <c r="C101">
         <v>-50.982790000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <f t="shared" si="2"/>
+        <v>5.2560000000000003E-3</v>
+      </c>
+      <c r="R101">
+        <v>5.2560000000000002</v>
+      </c>
+      <c r="S101">
+        <v>-233.68790000000001</v>
+      </c>
+      <c r="T101">
+        <v>-53.575110000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5256</v>
       </c>
@@ -9118,8 +15012,21 @@
       <c r="C102">
         <v>-53.575110000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <f t="shared" si="2"/>
+        <v>5.3070000000000001E-3</v>
+      </c>
+      <c r="R102">
+        <v>5.3070000000000004</v>
+      </c>
+      <c r="S102">
+        <v>-229.7527</v>
+      </c>
+      <c r="T102">
+        <v>-61.745269999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5307</v>
       </c>
@@ -9129,8 +15036,21 @@
       <c r="C103">
         <v>-61.745269999999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <f t="shared" si="2"/>
+        <v>5.3559999999999997E-3</v>
+      </c>
+      <c r="R103">
+        <v>5.3559999999999999</v>
+      </c>
+      <c r="S103">
+        <v>-227.1524</v>
+      </c>
+      <c r="T103">
+        <v>-66.373180000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5356</v>
       </c>
@@ -9140,8 +15060,21 @@
       <c r="C104">
         <v>-66.373180000000005</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <f t="shared" si="2"/>
+        <v>5.4059999999999993E-3</v>
+      </c>
+      <c r="R104">
+        <v>5.4059999999999997</v>
+      </c>
+      <c r="S104">
+        <v>-227.5702</v>
+      </c>
+      <c r="T104">
+        <v>-76.682929999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5406</v>
       </c>
@@ -9151,8 +15084,21 @@
       <c r="C105">
         <v>-76.682929999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <f t="shared" si="2"/>
+        <v>5.4560000000000008E-3</v>
+      </c>
+      <c r="R105">
+        <v>5.4560000000000004</v>
+      </c>
+      <c r="S105">
+        <v>-227.36880000000002</v>
+      </c>
+      <c r="T105">
+        <v>-81.594349999999991</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5456</v>
       </c>
@@ -9162,8 +15108,21 @@
       <c r="C106">
         <v>-81.594349999999991</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <f t="shared" si="2"/>
+        <v>5.5069999999999997E-3</v>
+      </c>
+      <c r="R106">
+        <v>5.5069999999999997</v>
+      </c>
+      <c r="S106">
+        <v>-226.66410000000002</v>
+      </c>
+      <c r="T106">
+        <v>-94.736800000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5507</v>
       </c>
@@ -9173,8 +15132,21 @@
       <c r="C107">
         <v>-94.736800000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <f t="shared" si="2"/>
+        <v>5.5560000000000002E-3</v>
+      </c>
+      <c r="R107">
+        <v>5.556</v>
+      </c>
+      <c r="S107">
+        <v>-227.28110000000001</v>
+      </c>
+      <c r="T107">
+        <v>-98.183389999999989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5556</v>
       </c>
@@ -9184,8 +15156,21 @@
       <c r="C108">
         <v>-98.183389999999989</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <f t="shared" si="2"/>
+        <v>5.6059999999999999E-3</v>
+      </c>
+      <c r="R108">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="S108">
+        <v>-229.036</v>
+      </c>
+      <c r="T108">
+        <v>-106.6281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5606</v>
       </c>
@@ -9195,8 +15180,21 @@
       <c r="C109">
         <v>-106.6281</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <f t="shared" si="2"/>
+        <v>5.6559999999999996E-3</v>
+      </c>
+      <c r="R109">
+        <v>5.6559999999999997</v>
+      </c>
+      <c r="S109">
+        <v>-230.06829999999999</v>
+      </c>
+      <c r="T109">
+        <v>-114.2222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5656</v>
       </c>
@@ -9206,8 +15204,21 @@
       <c r="C110">
         <v>-114.2222</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <f t="shared" si="2"/>
+        <v>5.7070000000000003E-3</v>
+      </c>
+      <c r="R110">
+        <v>5.7069999999999999</v>
+      </c>
+      <c r="S110">
+        <v>-231.63120000000001</v>
+      </c>
+      <c r="T110">
+        <v>-121.1035</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5707</v>
       </c>
@@ -9217,8 +15228,21 @@
       <c r="C111">
         <v>-121.1035</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <f t="shared" si="2"/>
+        <v>5.7559999999999998E-3</v>
+      </c>
+      <c r="R111">
+        <v>5.7560000000000002</v>
+      </c>
+      <c r="S111">
+        <v>-233.49950000000001</v>
+      </c>
+      <c r="T111">
+        <v>-127.68189999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5756</v>
       </c>
@@ -9228,8 +15252,21 @@
       <c r="C112">
         <v>-127.68189999999998</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <f t="shared" si="2"/>
+        <v>5.8060000000000004E-3</v>
+      </c>
+      <c r="R112">
+        <v>5.806</v>
+      </c>
+      <c r="S112">
+        <v>-235.20340000000002</v>
+      </c>
+      <c r="T112">
+        <v>-136.3252</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5806</v>
       </c>
@@ -9239,8 +15276,21 @@
       <c r="C113">
         <v>-136.3252</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <f t="shared" si="2"/>
+        <v>5.8560000000000001E-3</v>
+      </c>
+      <c r="R113">
+        <v>5.8559999999999999</v>
+      </c>
+      <c r="S113">
+        <v>-236.30770000000001</v>
+      </c>
+      <c r="T113">
+        <v>-140.03059999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5856</v>
       </c>
@@ -9250,8 +15300,21 @@
       <c r="C114">
         <v>-140.03059999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <f t="shared" si="2"/>
+        <v>5.9059999999999998E-3</v>
+      </c>
+      <c r="R114">
+        <v>5.9059999999999997</v>
+      </c>
+      <c r="S114">
+        <v>-238.38249999999999</v>
+      </c>
+      <c r="T114">
+        <v>-148.3167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5906</v>
       </c>
@@ -9261,8 +15324,21 @@
       <c r="C115">
         <v>-148.3167</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <f t="shared" si="2"/>
+        <v>5.9569999999999996E-3</v>
+      </c>
+      <c r="R115">
+        <v>5.9569999999999999</v>
+      </c>
+      <c r="S115">
+        <v>-238.56830000000002</v>
+      </c>
+      <c r="T115">
+        <v>-150.84610000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5957</v>
       </c>
@@ -9272,8 +15348,21 @@
       <c r="C116">
         <v>-150.84610000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <f t="shared" si="2"/>
+        <v>6.0060000000000001E-3</v>
+      </c>
+      <c r="R116">
+        <v>6.0060000000000002</v>
+      </c>
+      <c r="S116">
+        <v>-238.58539999999999</v>
+      </c>
+      <c r="T116">
+        <v>-148.51600000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6006</v>
       </c>
@@ -9283,8 +15372,21 @@
       <c r="C117">
         <v>-148.51600000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <f t="shared" si="2"/>
+        <v>6.0559999999999998E-3</v>
+      </c>
+      <c r="R117">
+        <v>6.056</v>
+      </c>
+      <c r="S117">
+        <v>-237.15539999999999</v>
+      </c>
+      <c r="T117">
+        <v>-147.6242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6056</v>
       </c>
@@ -9294,8 +15396,21 @@
       <c r="C118">
         <v>-147.6242</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <f t="shared" si="2"/>
+        <v>6.1059999999999994E-3</v>
+      </c>
+      <c r="R118">
+        <v>6.1059999999999999</v>
+      </c>
+      <c r="S118">
+        <v>-237.3536</v>
+      </c>
+      <c r="T118">
+        <v>-148.47890000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6106</v>
       </c>
@@ -9305,8 +15420,21 @@
       <c r="C119">
         <v>-148.47890000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <f t="shared" si="2"/>
+        <v>6.156E-3</v>
+      </c>
+      <c r="R119">
+        <v>6.1559999999999997</v>
+      </c>
+      <c r="S119">
+        <v>-177.3442</v>
+      </c>
+      <c r="T119">
+        <v>-149.7756</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6156</v>
       </c>
@@ -9316,8 +15444,21 @@
       <c r="C120">
         <v>-149.7756</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <f t="shared" si="2"/>
+        <v>6.2060000000000006E-3</v>
+      </c>
+      <c r="R120">
+        <v>6.2060000000000004</v>
+      </c>
+      <c r="S120">
+        <v>-21.770140000000001</v>
+      </c>
+      <c r="T120">
+        <v>-149.10839999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6206</v>
       </c>
@@ -9327,8 +15468,21 @@
       <c r="C121">
         <v>-149.10839999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <f t="shared" si="2"/>
+        <v>6.2560000000000003E-3</v>
+      </c>
+      <c r="R121">
+        <v>6.2560000000000002</v>
+      </c>
+      <c r="S121">
+        <v>78.763540000000006</v>
+      </c>
+      <c r="T121">
+        <v>-149.04570000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6256</v>
       </c>
@@ -9338,8 +15492,21 @@
       <c r="C122">
         <v>-149.04570000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <f t="shared" si="2"/>
+        <v>6.306E-3</v>
+      </c>
+      <c r="R122">
+        <v>6.306</v>
+      </c>
+      <c r="S122">
+        <v>75.044990000000013</v>
+      </c>
+      <c r="T122">
+        <v>-149.2654</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6306</v>
       </c>
@@ -9349,8 +15516,21 @@
       <c r="C123">
         <v>-149.2654</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <f t="shared" si="2"/>
+        <v>6.3559999999999997E-3</v>
+      </c>
+      <c r="R123">
+        <v>6.3559999999999999</v>
+      </c>
+      <c r="S123">
+        <v>64.704490000000007</v>
+      </c>
+      <c r="T123">
+        <v>-149.15020000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6356</v>
       </c>
@@ -9360,8 +15540,21 @@
       <c r="C124">
         <v>-149.15020000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <f t="shared" si="2"/>
+        <v>6.4059999999999994E-3</v>
+      </c>
+      <c r="R124">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="S124">
+        <v>65.503389999999996</v>
+      </c>
+      <c r="T124">
+        <v>-143.53460000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6406</v>
       </c>
@@ -9371,8 +15564,21 @@
       <c r="C125">
         <v>-143.53460000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <f t="shared" si="2"/>
+        <v>6.4570000000000001E-3</v>
+      </c>
+      <c r="R125">
+        <v>6.4569999999999999</v>
+      </c>
+      <c r="S125">
+        <v>71.000990000000002</v>
+      </c>
+      <c r="T125">
+        <v>-135.6003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6457</v>
       </c>
@@ -9382,8 +15588,21 @@
       <c r="C126">
         <v>-135.6003</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <f t="shared" si="2"/>
+        <v>6.5060000000000005E-3</v>
+      </c>
+      <c r="R126">
+        <v>6.5060000000000002</v>
+      </c>
+      <c r="S126">
+        <v>70.604759999999999</v>
+      </c>
+      <c r="T126">
+        <v>-132.44210000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6506</v>
       </c>
@@ -9393,8 +15612,21 @@
       <c r="C127">
         <v>-132.44210000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <f t="shared" si="2"/>
+        <v>6.5560000000000002E-3</v>
+      </c>
+      <c r="R127">
+        <v>6.556</v>
+      </c>
+      <c r="S127">
+        <v>72.864189999999994</v>
+      </c>
+      <c r="T127">
+        <v>-126.97020000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6556</v>
       </c>
@@ -9404,8 +15636,21 @@
       <c r="C128">
         <v>-126.97020000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <f t="shared" si="2"/>
+        <v>6.6059999999999999E-3</v>
+      </c>
+      <c r="R128">
+        <v>6.6059999999999999</v>
+      </c>
+      <c r="S128">
+        <v>73.885220000000004</v>
+      </c>
+      <c r="T128">
+        <v>-124.2778</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6606</v>
       </c>
@@ -9415,8 +15660,21 @@
       <c r="C129">
         <v>-124.2778</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <f t="shared" si="2"/>
+        <v>6.6559999999999996E-3</v>
+      </c>
+      <c r="R129">
+        <v>6.6559999999999997</v>
+      </c>
+      <c r="S129">
+        <v>76.004500000000007</v>
+      </c>
+      <c r="T129">
+        <v>-115.06829999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6656</v>
       </c>
@@ -9426,8 +15684,21 @@
       <c r="C130">
         <v>-115.06829999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <f t="shared" ref="Q130:Q193" si="3">R130/1000</f>
+        <v>6.7060000000000002E-3</v>
+      </c>
+      <c r="R130">
+        <v>6.7060000000000004</v>
+      </c>
+      <c r="S130">
+        <v>77.394800000000004</v>
+      </c>
+      <c r="T130">
+        <v>-106.13839999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6706</v>
       </c>
@@ -9437,8 +15708,21 @@
       <c r="C131">
         <v>-106.13839999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <f t="shared" si="3"/>
+        <v>6.757E-3</v>
+      </c>
+      <c r="R131">
+        <v>6.7569999999999997</v>
+      </c>
+      <c r="S131">
+        <v>80.149619999999999</v>
+      </c>
+      <c r="T131">
+        <v>-101.2243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6757</v>
       </c>
@@ -9448,8 +15732,21 @@
       <c r="C132">
         <v>-101.2243</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <f t="shared" si="3"/>
+        <v>6.8060000000000004E-3</v>
+      </c>
+      <c r="R132">
+        <v>6.806</v>
+      </c>
+      <c r="S132">
+        <v>82.299760000000006</v>
+      </c>
+      <c r="T132">
+        <v>-92.011949999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6806</v>
       </c>
@@ -9459,8 +15756,21 @@
       <c r="C133">
         <v>-92.011949999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <f t="shared" si="3"/>
+        <v>6.8560000000000001E-3</v>
+      </c>
+      <c r="R133">
+        <v>6.8559999999999999</v>
+      </c>
+      <c r="S133">
+        <v>84.565299999999993</v>
+      </c>
+      <c r="T133">
+        <v>-88.141130000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6856</v>
       </c>
@@ -9470,8 +15780,21 @@
       <c r="C134">
         <v>-88.141130000000004</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <f t="shared" si="3"/>
+        <v>6.9059999999999998E-3</v>
+      </c>
+      <c r="R134">
+        <v>6.9059999999999997</v>
+      </c>
+      <c r="S134">
+        <v>88.482320000000001</v>
+      </c>
+      <c r="T134">
+        <v>-76.212500000000006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6906</v>
       </c>
@@ -9481,8 +15804,21 @@
       <c r="C135">
         <v>-76.212500000000006</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <f t="shared" si="3"/>
+        <v>6.9560000000000004E-3</v>
+      </c>
+      <c r="R135">
+        <v>6.9560000000000004</v>
+      </c>
+      <c r="S135">
+        <v>90.149039999999999</v>
+      </c>
+      <c r="T135">
+        <v>-65.019880000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6956</v>
       </c>
@@ -9492,8 +15828,21 @@
       <c r="C136">
         <v>-65.019880000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <f t="shared" si="3"/>
+        <v>7.0060000000000001E-3</v>
+      </c>
+      <c r="R136">
+        <v>7.0060000000000002</v>
+      </c>
+      <c r="S136">
+        <v>90.01867</v>
+      </c>
+      <c r="T136">
+        <v>-57.779029999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7006</v>
       </c>
@@ -9503,8 +15852,21 @@
       <c r="C137">
         <v>-57.779029999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <f t="shared" si="3"/>
+        <v>7.0559999999999998E-3</v>
+      </c>
+      <c r="R137">
+        <v>7.056</v>
+      </c>
+      <c r="S137">
+        <v>93.453850000000003</v>
+      </c>
+      <c r="T137">
+        <v>-44.306629999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>7056</v>
       </c>
@@ -9514,8 +15876,21 @@
       <c r="C138">
         <v>-44.306629999999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <f t="shared" si="3"/>
+        <v>7.1059999999999995E-3</v>
+      </c>
+      <c r="R138">
+        <v>7.1059999999999999</v>
+      </c>
+      <c r="S138">
+        <v>95.95241</v>
+      </c>
+      <c r="T138">
+        <v>-34.552319999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7106</v>
       </c>
@@ -9525,8 +15900,21 @@
       <c r="C139">
         <v>-34.552319999999995</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <f t="shared" si="3"/>
+        <v>7.156E-3</v>
+      </c>
+      <c r="R139">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="S139">
+        <v>97.497860000000003</v>
+      </c>
+      <c r="T139">
+        <v>-30.351940000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>7156</v>
       </c>
@@ -9536,8 +15924,21 @@
       <c r="C140">
         <v>-30.351940000000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <f t="shared" si="3"/>
+        <v>7.2060000000000006E-3</v>
+      </c>
+      <c r="R140">
+        <v>7.2060000000000004</v>
+      </c>
+      <c r="S140">
+        <v>99.110920000000007</v>
+      </c>
+      <c r="T140">
+        <v>-30.373619999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>7206</v>
       </c>
@@ -9547,8 +15948,21 @@
       <c r="C141">
         <v>-30.373619999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <f t="shared" si="3"/>
+        <v>7.2560000000000003E-3</v>
+      </c>
+      <c r="R141">
+        <v>7.2560000000000002</v>
+      </c>
+      <c r="S141">
+        <v>99.38991</v>
+      </c>
+      <c r="T141">
+        <v>-30.95721</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>7256</v>
       </c>
@@ -9558,8 +15972,21 @@
       <c r="C142">
         <v>-30.95721</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <f t="shared" si="3"/>
+        <v>7.306E-3</v>
+      </c>
+      <c r="R142">
+        <v>7.306</v>
+      </c>
+      <c r="S142">
+        <v>97.615809999999996</v>
+      </c>
+      <c r="T142">
+        <v>-30.879580000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>7306</v>
       </c>
@@ -9569,8 +15996,21 @@
       <c r="C143">
         <v>-30.879580000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <f t="shared" si="3"/>
+        <v>7.3569999999999998E-3</v>
+      </c>
+      <c r="R143">
+        <v>7.3570000000000002</v>
+      </c>
+      <c r="S143">
+        <v>63.263849999999998</v>
+      </c>
+      <c r="T143">
+        <v>-29.759910000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>7357</v>
       </c>
@@ -9580,8 +16020,21 @@
       <c r="C144">
         <v>-29.759910000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <f t="shared" si="3"/>
+        <v>7.4570000000000001E-3</v>
+      </c>
+      <c r="R144">
+        <v>7.4569999999999999</v>
+      </c>
+      <c r="S144">
+        <v>-114.73859999999999</v>
+      </c>
+      <c r="T144">
+        <v>-30.868199999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7457</v>
       </c>
@@ -9591,8 +16044,21 @@
       <c r="C145">
         <v>-30.868199999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <f t="shared" si="3"/>
+        <v>7.5069999999999998E-3</v>
+      </c>
+      <c r="R145">
+        <v>7.5069999999999997</v>
+      </c>
+      <c r="S145">
+        <v>-238.9271</v>
+      </c>
+      <c r="T145">
+        <v>-29.82695</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>7507</v>
       </c>
@@ -9602,8 +16068,21 @@
       <c r="C146">
         <v>-29.82695</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <f t="shared" si="3"/>
+        <v>7.5570000000000003E-3</v>
+      </c>
+      <c r="R146">
+        <v>7.5570000000000004</v>
+      </c>
+      <c r="S146">
+        <v>-209.59180000000001</v>
+      </c>
+      <c r="T146">
+        <v>-30.933599999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7557</v>
       </c>
@@ -9613,8 +16092,21 @@
       <c r="C147">
         <v>-30.933599999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <f t="shared" si="3"/>
+        <v>7.607E-3</v>
+      </c>
+      <c r="R147">
+        <v>7.6070000000000002</v>
+      </c>
+      <c r="S147">
+        <v>-225.7912</v>
+      </c>
+      <c r="T147">
+        <v>-32.403849999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7607</v>
       </c>
@@ -9624,8 +16116,21 @@
       <c r="C148">
         <v>-32.403849999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q148">
+        <f t="shared" si="3"/>
+        <v>7.6569999999999997E-3</v>
+      </c>
+      <c r="R148">
+        <v>7.657</v>
+      </c>
+      <c r="S148">
+        <v>-220.51920000000001</v>
+      </c>
+      <c r="T148">
+        <v>-41.92792</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7657</v>
       </c>
@@ -9635,8 +16140,21 @@
       <c r="C149">
         <v>-41.92792</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <f t="shared" si="3"/>
+        <v>7.7069999999999994E-3</v>
+      </c>
+      <c r="R149">
+        <v>7.7069999999999999</v>
+      </c>
+      <c r="S149">
+        <v>-232.77220000000003</v>
+      </c>
+      <c r="T149">
+        <v>-51.250149999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>7707</v>
       </c>
@@ -9646,8 +16164,21 @@
       <c r="C150">
         <v>-51.250149999999998</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <f t="shared" si="3"/>
+        <v>7.757E-3</v>
+      </c>
+      <c r="R150">
+        <v>7.7569999999999997</v>
+      </c>
+      <c r="S150">
+        <v>-230.75839999999999</v>
+      </c>
+      <c r="T150">
+        <v>-54.381110000000007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7757</v>
       </c>
@@ -9657,8 +16188,21 @@
       <c r="C151">
         <v>-54.381110000000007</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <f t="shared" si="3"/>
+        <v>7.8070000000000006E-3</v>
+      </c>
+      <c r="R151">
+        <v>7.8070000000000004</v>
+      </c>
+      <c r="S151">
+        <v>-230.8896</v>
+      </c>
+      <c r="T151">
+        <v>-60.781059999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7807</v>
       </c>
@@ -9668,8 +16212,21 @@
       <c r="C152">
         <v>-60.781059999999997</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q152">
+        <f t="shared" si="3"/>
+        <v>7.8569999999999994E-3</v>
+      </c>
+      <c r="R152">
+        <v>7.8570000000000002</v>
+      </c>
+      <c r="S152">
+        <v>-227.69149999999999</v>
+      </c>
+      <c r="T152">
+        <v>-70.245609999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7857</v>
       </c>
@@ -9679,8 +16236,21 @@
       <c r="C153">
         <v>-70.245609999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <f t="shared" si="3"/>
+        <v>7.9070000000000008E-3</v>
+      </c>
+      <c r="R153">
+        <v>7.907</v>
+      </c>
+      <c r="S153">
+        <v>-230.3066</v>
+      </c>
+      <c r="T153">
+        <v>-78.789209999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>7907</v>
       </c>
@@ -9690,8 +16260,21 @@
       <c r="C154">
         <v>-78.789209999999997</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <f t="shared" si="3"/>
+        <v>7.9570000000000005E-3</v>
+      </c>
+      <c r="R154">
+        <v>7.9569999999999999</v>
+      </c>
+      <c r="S154">
+        <v>-228.49630000000002</v>
+      </c>
+      <c r="T154">
+        <v>-84.341250000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7957</v>
       </c>
@@ -9701,8 +16284,21 @@
       <c r="C155">
         <v>-84.341250000000002</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <f t="shared" si="3"/>
+        <v>8.0070000000000002E-3</v>
+      </c>
+      <c r="R155">
+        <v>8.0069999999999997</v>
+      </c>
+      <c r="S155">
+        <v>-229.90869999999998</v>
+      </c>
+      <c r="T155">
+        <v>-95.260010000000008</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>8007</v>
       </c>
@@ -9712,8 +16308,21 @@
       <c r="C156">
         <v>-95.260010000000008</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q156">
+        <f t="shared" si="3"/>
+        <v>8.0569999999999999E-3</v>
+      </c>
+      <c r="R156">
+        <v>8.0570000000000004</v>
+      </c>
+      <c r="S156">
+        <v>-229.768</v>
+      </c>
+      <c r="T156">
+        <v>-105.9127</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8057</v>
       </c>
@@ -9723,8 +16332,21 @@
       <c r="C157">
         <v>-105.9127</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q157">
+        <f t="shared" si="3"/>
+        <v>8.1069999999999996E-3</v>
+      </c>
+      <c r="R157">
+        <v>8.1069999999999993</v>
+      </c>
+      <c r="S157">
+        <v>-229.22149999999999</v>
+      </c>
+      <c r="T157">
+        <v>-111.36409999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8107</v>
       </c>
@@ -9734,8 +16356,21 @@
       <c r="C158">
         <v>-111.36409999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <f t="shared" si="3"/>
+        <v>8.1569999999999993E-3</v>
+      </c>
+      <c r="R158">
+        <v>8.157</v>
+      </c>
+      <c r="S158">
+        <v>-230.84620000000001</v>
+      </c>
+      <c r="T158">
+        <v>-116.87090000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8157</v>
       </c>
@@ -9745,8 +16380,21 @@
       <c r="C159">
         <v>-116.87090000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <f t="shared" si="3"/>
+        <v>8.2070000000000008E-3</v>
+      </c>
+      <c r="R159">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="S159">
+        <v>-230.41130000000001</v>
+      </c>
+      <c r="T159">
+        <v>-119.518</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>8207</v>
       </c>
@@ -9756,8 +16404,21 @@
       <c r="C160">
         <v>-119.518</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q160">
+        <f t="shared" si="3"/>
+        <v>8.2570000000000005E-3</v>
+      </c>
+      <c r="R160">
+        <v>8.2569999999999997</v>
+      </c>
+      <c r="S160">
+        <v>-230.6908</v>
+      </c>
+      <c r="T160">
+        <v>-131.67019999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8257</v>
       </c>
@@ -9767,8 +16428,21 @@
       <c r="C161">
         <v>-131.67019999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q161">
+        <f t="shared" si="3"/>
+        <v>8.3070000000000001E-3</v>
+      </c>
+      <c r="R161">
+        <v>8.3070000000000004</v>
+      </c>
+      <c r="S161">
+        <v>-230.267</v>
+      </c>
+      <c r="T161">
+        <v>-136.0479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>8307</v>
       </c>
@@ -9778,8 +16452,21 @@
       <c r="C162">
         <v>-136.0479</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <f t="shared" si="3"/>
+        <v>8.3569999999999998E-3</v>
+      </c>
+      <c r="R162">
+        <v>8.3569999999999993</v>
+      </c>
+      <c r="S162">
+        <v>-230.05930000000001</v>
+      </c>
+      <c r="T162">
+        <v>-145.29810000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8357</v>
       </c>
@@ -9789,8 +16476,21 @@
       <c r="C163">
         <v>-145.29810000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q163">
+        <f t="shared" si="3"/>
+        <v>8.4069999999999995E-3</v>
+      </c>
+      <c r="R163">
+        <v>8.407</v>
+      </c>
+      <c r="S163">
+        <v>-229.21209999999999</v>
+      </c>
+      <c r="T163">
+        <v>-148.80460000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>8407</v>
       </c>
@@ -9800,8 +16500,21 @@
       <c r="C164">
         <v>-148.80460000000002</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <f t="shared" si="3"/>
+        <v>8.457000000000001E-3</v>
+      </c>
+      <c r="R164">
+        <v>8.4570000000000007</v>
+      </c>
+      <c r="S164">
+        <v>-229.50219999999999</v>
+      </c>
+      <c r="T164">
+        <v>-148.84200000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>8457</v>
       </c>
@@ -9811,8 +16524,21 @@
       <c r="C165">
         <v>-148.84200000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q165">
+        <f t="shared" si="3"/>
+        <v>8.5069999999999989E-3</v>
+      </c>
+      <c r="R165">
+        <v>8.5069999999999997</v>
+      </c>
+      <c r="S165">
+        <v>-230.5729</v>
+      </c>
+      <c r="T165">
+        <v>-147.75189999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8507</v>
       </c>
@@ -9822,8 +16548,21 @@
       <c r="C166">
         <v>-147.75189999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q166">
+        <f t="shared" si="3"/>
+        <v>8.5570000000000004E-3</v>
+      </c>
+      <c r="R166">
+        <v>8.5570000000000004</v>
+      </c>
+      <c r="S166">
+        <v>-231.9658</v>
+      </c>
+      <c r="T166">
+        <v>-148.41499999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8557</v>
       </c>
@@ -9833,8 +16572,21 @@
       <c r="C167">
         <v>-148.41499999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q167">
+        <f t="shared" si="3"/>
+        <v>8.6070000000000001E-3</v>
+      </c>
+      <c r="R167">
+        <v>8.6069999999999993</v>
+      </c>
+      <c r="S167">
+        <v>-231.8844</v>
+      </c>
+      <c r="T167">
+        <v>-149.00710000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>8607</v>
       </c>
@@ -9844,8 +16596,21 @@
       <c r="C168">
         <v>-149.00710000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q168">
+        <f t="shared" si="3"/>
+        <v>8.7070000000000012E-3</v>
+      </c>
+      <c r="R168">
+        <v>8.7070000000000007</v>
+      </c>
+      <c r="S168">
+        <v>2.2823230000000003</v>
+      </c>
+      <c r="T168">
+        <v>-149.03830000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8707</v>
       </c>
@@ -9855,8 +16620,21 @@
       <c r="C169">
         <v>-149.03830000000002</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <f t="shared" si="3"/>
+        <v>8.7569999999999992E-3</v>
+      </c>
+      <c r="R169">
+        <v>8.7569999999999997</v>
+      </c>
+      <c r="S169">
+        <v>37.2423</v>
+      </c>
+      <c r="T169">
+        <v>-149.20779999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8757</v>
       </c>
@@ -9866,8 +16644,21 @@
       <c r="C170">
         <v>-149.20779999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q170">
+        <f t="shared" si="3"/>
+        <v>8.8070000000000006E-3</v>
+      </c>
+      <c r="R170">
+        <v>8.8070000000000004</v>
+      </c>
+      <c r="S170">
+        <v>49.906020000000005</v>
+      </c>
+      <c r="T170">
+        <v>-149.18619999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8807</v>
       </c>
@@ -9877,8 +16668,21 @@
       <c r="C171">
         <v>-149.18619999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q171">
+        <f t="shared" si="3"/>
+        <v>8.8569999999999986E-3</v>
+      </c>
+      <c r="R171">
+        <v>8.8569999999999993</v>
+      </c>
+      <c r="S171">
+        <v>59.913960000000003</v>
+      </c>
+      <c r="T171">
+        <v>-148.19470000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8857</v>
       </c>
@@ -9888,8 +16692,21 @@
       <c r="C172">
         <v>-148.19470000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q172">
+        <f t="shared" si="3"/>
+        <v>8.907E-3</v>
+      </c>
+      <c r="R172">
+        <v>8.907</v>
+      </c>
+      <c r="S172">
+        <v>64.635090000000005</v>
+      </c>
+      <c r="T172">
+        <v>-144.1431</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8907</v>
       </c>
@@ -9899,8 +16716,21 @@
       <c r="C173">
         <v>-144.1431</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <f t="shared" si="3"/>
+        <v>8.9570000000000014E-3</v>
+      </c>
+      <c r="R173">
+        <v>8.9570000000000007</v>
+      </c>
+      <c r="S173">
+        <v>67.027340000000009</v>
+      </c>
+      <c r="T173">
+        <v>-141.1147</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>8957</v>
       </c>
@@ -9910,8 +16740,21 @@
       <c r="C174">
         <v>-141.1147</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <f t="shared" si="3"/>
+        <v>9.0069999999999994E-3</v>
+      </c>
+      <c r="R174">
+        <v>9.0069999999999997</v>
+      </c>
+      <c r="S174">
+        <v>70.793030000000002</v>
+      </c>
+      <c r="T174">
+        <v>-132.333</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>9007</v>
       </c>
@@ -9921,8 +16764,21 @@
       <c r="C175">
         <v>-132.333</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q175">
+        <f t="shared" si="3"/>
+        <v>9.0580000000000001E-3</v>
+      </c>
+      <c r="R175">
+        <v>9.0579999999999998</v>
+      </c>
+      <c r="S175">
+        <v>72.865560000000002</v>
+      </c>
+      <c r="T175">
+        <v>-128.5609</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>9058</v>
       </c>
@@ -9932,8 +16788,21 @@
       <c r="C176">
         <v>-128.5609</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <f t="shared" si="3"/>
+        <v>9.1069999999999988E-3</v>
+      </c>
+      <c r="R176">
+        <v>9.1069999999999993</v>
+      </c>
+      <c r="S176">
+        <v>75.64558000000001</v>
+      </c>
+      <c r="T176">
+        <v>-124.63770000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>9107</v>
       </c>
@@ -9943,8 +16812,21 @@
       <c r="C177">
         <v>-124.63770000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q177">
+        <f t="shared" si="3"/>
+        <v>9.1570000000000002E-3</v>
+      </c>
+      <c r="R177">
+        <v>9.157</v>
+      </c>
+      <c r="S177">
+        <v>78.653699999999986</v>
+      </c>
+      <c r="T177">
+        <v>-118.8219</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>9157</v>
       </c>
@@ -9954,8 +16836,21 @@
       <c r="C178">
         <v>-118.8219</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <f t="shared" si="3"/>
+        <v>9.2080000000000009E-3</v>
+      </c>
+      <c r="R178">
+        <v>9.2080000000000002</v>
+      </c>
+      <c r="S178">
+        <v>82.773570000000007</v>
+      </c>
+      <c r="T178">
+        <v>-111.9512</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>9208</v>
       </c>
@@ -9965,8 +16860,21 @@
       <c r="C179">
         <v>-111.9512</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q179">
+        <f t="shared" si="3"/>
+        <v>9.2579999999999989E-3</v>
+      </c>
+      <c r="R179">
+        <v>9.2579999999999991</v>
+      </c>
+      <c r="S179">
+        <v>85.1708</v>
+      </c>
+      <c r="T179">
+        <v>-104.7539</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>9258</v>
       </c>
@@ -9976,8 +16884,21 @@
       <c r="C180">
         <v>-104.7539</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q180">
+        <f t="shared" si="3"/>
+        <v>9.3089999999999996E-3</v>
+      </c>
+      <c r="R180">
+        <v>9.3089999999999993</v>
+      </c>
+      <c r="S180">
+        <v>86.45581</v>
+      </c>
+      <c r="T180">
+        <v>-94.444070000000011</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>9309</v>
       </c>
@@ -9987,8 +16908,21 @@
       <c r="C181">
         <v>-94.444070000000011</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <f t="shared" si="3"/>
+        <v>9.358E-3</v>
+      </c>
+      <c r="R181">
+        <v>9.3580000000000005</v>
+      </c>
+      <c r="S181">
+        <v>87.576589999999996</v>
+      </c>
+      <c r="T181">
+        <v>-89.15679999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>9358</v>
       </c>
@@ -9998,8 +16932,21 @@
       <c r="C182">
         <v>-89.15679999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <f t="shared" si="3"/>
+        <v>9.4079999999999997E-3</v>
+      </c>
+      <c r="R182">
+        <v>9.4079999999999995</v>
+      </c>
+      <c r="S182">
+        <v>87.687749999999994</v>
+      </c>
+      <c r="T182">
+        <v>-80.883209999999991</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>9408</v>
       </c>
@@ -10009,8 +16956,21 @@
       <c r="C183">
         <v>-80.883209999999991</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <f t="shared" si="3"/>
+        <v>9.4579999999999994E-3</v>
+      </c>
+      <c r="R183">
+        <v>9.4580000000000002</v>
+      </c>
+      <c r="S183">
+        <v>89.21835999999999</v>
+      </c>
+      <c r="T183">
+        <v>-74.723730000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>9458</v>
       </c>
@@ -10020,8 +16980,21 @@
       <c r="C184">
         <v>-74.723730000000003</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <f t="shared" si="3"/>
+        <v>9.5079999999999991E-3</v>
+      </c>
+      <c r="R184">
+        <v>9.5079999999999991</v>
+      </c>
+      <c r="S184">
+        <v>89.427250000000001</v>
+      </c>
+      <c r="T184">
+        <v>-59.761300000000006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>9508</v>
       </c>
@@ -10031,8 +17004,21 @@
       <c r="C185">
         <v>-59.761300000000006</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <f t="shared" si="3"/>
+        <v>9.5580000000000005E-3</v>
+      </c>
+      <c r="R185">
+        <v>9.5579999999999998</v>
+      </c>
+      <c r="S185">
+        <v>91.731800000000007</v>
+      </c>
+      <c r="T185">
+        <v>-47.693840000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9558</v>
       </c>
@@ -10042,8 +17028,21 @@
       <c r="C186">
         <v>-47.693840000000002</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <f t="shared" si="3"/>
+        <v>9.6080000000000002E-3</v>
+      </c>
+      <c r="R186">
+        <v>9.6080000000000005</v>
+      </c>
+      <c r="S186">
+        <v>93.152479999999997</v>
+      </c>
+      <c r="T186">
+        <v>-37.128510000000006</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9608</v>
       </c>
@@ -10053,8 +17052,21 @@
       <c r="C187">
         <v>-37.128510000000006</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <f t="shared" si="3"/>
+        <v>9.6579999999999999E-3</v>
+      </c>
+      <c r="R187">
+        <v>9.6579999999999995</v>
+      </c>
+      <c r="S187">
+        <v>94.243120000000005</v>
+      </c>
+      <c r="T187">
+        <v>-34.592369999999995</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9658</v>
       </c>
@@ -10064,8 +17076,21 @@
       <c r="C188">
         <v>-34.592369999999995</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <f t="shared" si="3"/>
+        <v>9.7079999999999996E-3</v>
+      </c>
+      <c r="R188">
+        <v>9.7080000000000002</v>
+      </c>
+      <c r="S188">
+        <v>94.910530000000008</v>
+      </c>
+      <c r="T188">
+        <v>-30.101890000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9708</v>
       </c>
@@ -10075,8 +17100,21 @@
       <c r="C189">
         <v>-30.101890000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <f t="shared" si="3"/>
+        <v>9.7579999999999993E-3</v>
+      </c>
+      <c r="R189">
+        <v>9.7579999999999991</v>
+      </c>
+      <c r="S189">
+        <v>97.17998</v>
+      </c>
+      <c r="T189">
+        <v>-31.780360000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9758</v>
       </c>
@@ -10086,8 +17124,21 @@
       <c r="C190">
         <v>-31.780360000000002</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <f t="shared" si="3"/>
+        <v>9.807999999999999E-3</v>
+      </c>
+      <c r="R190">
+        <v>9.8079999999999998</v>
+      </c>
+      <c r="S190">
+        <v>97.210589999999996</v>
+      </c>
+      <c r="T190">
+        <v>-31.737509999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9808</v>
       </c>
@@ -10097,8 +17148,21 @@
       <c r="C191">
         <v>-31.737509999999997</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <f t="shared" si="3"/>
+        <v>9.8589999999999997E-3</v>
+      </c>
+      <c r="R191">
+        <v>9.859</v>
+      </c>
+      <c r="S191">
+        <v>98.433049999999994</v>
+      </c>
+      <c r="T191">
+        <v>-30.929669999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9859</v>
       </c>
@@ -10108,8 +17172,21 @@
       <c r="C192">
         <v>-30.929669999999998</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <f t="shared" si="3"/>
+        <v>9.9080000000000001E-3</v>
+      </c>
+      <c r="R192">
+        <v>9.9079999999999995</v>
+      </c>
+      <c r="S192">
+        <v>101.00330000000001</v>
+      </c>
+      <c r="T192">
+        <v>-30.716899999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9908</v>
       </c>
@@ -10119,8 +17196,21 @@
       <c r="C193">
         <v>-30.716899999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <f t="shared" si="3"/>
+        <v>9.9579999999999998E-3</v>
+      </c>
+      <c r="R193">
+        <v>9.9580000000000002</v>
+      </c>
+      <c r="S193">
+        <v>100.20099999999999</v>
+      </c>
+      <c r="T193">
+        <v>-31.964510000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9958</v>
       </c>
@@ -10131,7 +17221,7 @@
         <v>-31.964510000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>10008</v>
       </c>
@@ -10142,7 +17232,7 @@
         <v>-30.413240000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>10059</v>
       </c>
@@ -10153,7 +17243,7 @@
         <v>-30.46866</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10109</v>
       </c>
@@ -10164,7 +17254,7 @@
         <v>-31.23413</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10159</v>
       </c>
@@ -10175,7 +17265,7 @@
         <v>-30.9557</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10210</v>
       </c>
@@ -10186,7 +17276,7 @@
         <v>-30.990489999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10259</v>
       </c>
@@ -10197,7 +17287,7 @@
         <v>-32.518630000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10310</v>
       </c>
@@ -10208,7 +17298,7 @@
         <v>-40.156469999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10360</v>
       </c>
@@ -10219,7 +17309,7 @@
         <v>-42.967350000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10410</v>
       </c>
@@ -10230,7 +17320,7 @@
         <v>-52.345589999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10460</v>
       </c>
@@ -10241,7 +17331,7 @@
         <v>-61.372250000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>10510</v>
       </c>
@@ -10252,7 +17342,7 @@
         <v>-65.341319999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10559</v>
       </c>
@@ -10263,7 +17353,7 @@
         <v>-75.767710000000008</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>10609</v>
       </c>
@@ -10274,7 +17364,7 @@
         <v>-88.847650000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>10660</v>
       </c>
@@ -13397,24 +20487,18 @@
       <c r="C491">
         <v>-30.854099999999999</v>
       </c>
-      <c r="G491" t="s">
-        <v>3</v>
-      </c>
-      <c r="H491">
-        <v>2454</v>
-      </c>
       <c r="I491">
         <v>2554</v>
       </c>
       <c r="K491" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L491" s="1">
         <v>0.1</v>
       </c>
       <c r="M491">
-        <f>H494+ H495*0.1</f>
-        <v>-42.564</v>
+        <f>I403+ I404*0.1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
@@ -13427,12 +20511,6 @@
       <c r="C492">
         <v>-32.25121</v>
       </c>
-      <c r="G492" t="s">
-        <v>4</v>
-      </c>
-      <c r="H492">
-        <v>2604</v>
-      </c>
       <c r="I492">
         <v>3504</v>
       </c>
@@ -13461,12 +20539,6 @@
       <c r="C494">
         <v>-50.10913</v>
       </c>
-      <c r="G494" t="s">
-        <v>6</v>
-      </c>
-      <c r="H494">
-        <v>-30.66</v>
-      </c>
       <c r="I494">
         <v>-149.69999999999999</v>
       </c>
@@ -13481,10 +20553,6 @@
       <c r="C495">
         <v>-57.39105</v>
       </c>
-      <c r="H495">
-        <f>I494-H494</f>
-        <v>-119.03999999999999</v>
-      </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496">
@@ -20153,6 +27221,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L4:N4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Results/bodePlot25_09.xlsx
+++ b/Results/bodePlot25_09.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Time (ms)</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>90 percent</t>
+  </si>
+  <si>
+    <t>response time</t>
+  </si>
+  <si>
+    <t>input time</t>
+  </si>
+  <si>
+    <t>steady state time</t>
   </si>
 </sst>
 </file>
@@ -6944,11 +6953,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="565777528"/>
-        <c:axId val="565777920"/>
+        <c:axId val="432381624"/>
+        <c:axId val="432382016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565777528"/>
+        <c:axId val="432381624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7005,12 +7014,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565777920"/>
+        <c:crossAx val="432382016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565777920"/>
+        <c:axId val="432382016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7067,7 +7076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565777528"/>
+        <c:crossAx val="432381624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7081,7 +7090,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9602,11 +9610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="565778312"/>
-        <c:axId val="565780272"/>
+        <c:axId val="432382800"/>
+        <c:axId val="432383192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565778312"/>
+        <c:axId val="432382800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -9715,12 +9723,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565780272"/>
+        <c:crossAx val="432383192"/>
         <c:crossesAt val="-300"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565780272"/>
+        <c:axId val="432383192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9828,7 +9836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565778312"/>
+        <c:crossAx val="432382800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11136,7 +11144,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5979219" y="3738562"/>
-          <a:ext cx="9016253" cy="4452938"/>
+          <a:ext cx="9173136" cy="4452938"/>
           <a:chOff x="5979219" y="3738562"/>
           <a:chExt cx="9016253" cy="4452938"/>
         </a:xfrm>
@@ -11956,7 +11964,7 @@
   <dimension ref="A1:T1101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11965,7 +11973,7 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -12052,7 +12060,7 @@
         <v>4806</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">F3-4756</f>
+        <f t="shared" ref="G3:G38" si="1">F3-4756</f>
         <v>50</v>
       </c>
       <c r="H3">
@@ -12625,6 +12633,12 @@
       <c r="I15">
         <v>-81.594349999999991</v>
       </c>
+      <c r="L15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
       <c r="Q15">
         <f t="shared" si="0"/>
         <v>7.0099999999999991E-4</v>
@@ -12662,6 +12676,18 @@
       <c r="I16">
         <v>-94.736800000000002</v>
       </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>3.754</v>
+      </c>
+      <c r="N16">
+        <v>6.2060000000000004</v>
+      </c>
+      <c r="O16">
+        <v>1.2509999999999999</v>
+      </c>
       <c r="Q16">
         <f t="shared" si="0"/>
         <v>7.5100000000000004E-4</v>
@@ -12699,6 +12725,18 @@
       <c r="I17">
         <v>-98.183389999999989</v>
       </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>4.806</v>
+      </c>
+      <c r="N17">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="O17">
+        <v>2.254</v>
+      </c>
       <c r="Q17">
         <f t="shared" si="0"/>
         <v>8.0100000000000006E-4</v>
@@ -12736,6 +12774,21 @@
       <c r="I18">
         <v>-106.6281</v>
       </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <f>M17-M16</f>
+        <v>1.052</v>
+      </c>
+      <c r="N18">
+        <f>N17-N16</f>
+        <v>0.94999999999999929</v>
+      </c>
+      <c r="O18">
+        <f>O17-O16</f>
+        <v>1.0030000000000001</v>
+      </c>
       <c r="Q18">
         <f t="shared" si="0"/>
         <v>8.5099999999999998E-4</v>
@@ -12773,6 +12826,13 @@
       <c r="I19">
         <v>-114.2222</v>
       </c>
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGE(M18:O18)</f>
+        <v>1.0016666666666665</v>
+      </c>
       <c r="Q19">
         <f t="shared" si="0"/>
         <v>9.01E-4</v>
@@ -27221,8 +27281,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
